--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1676706.550399013</v>
+        <v>1675951.757415891</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2896994.290843034</v>
+        <v>2896994.290843036</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736549</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,58 +1221,58 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>8.816525072005941</v>
       </c>
-      <c r="G9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="H9" t="n">
+      <c r="U9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="I9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1297,67 +1297,67 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="U10" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="G10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>287.4621822983377</v>
       </c>
       <c r="C11" t="n">
-        <v>275.4734992560195</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>266.4548033005474</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>208.0591371058319</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>307.3687569584301</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4059562765828</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.94631158407878</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.59762315252743</v>
+        <v>70.59762315252745</v>
       </c>
       <c r="T11" t="n">
         <v>117.1465288645459</v>
       </c>
       <c r="U11" t="n">
-        <v>120.2551449304328</v>
+        <v>149.6530179828525</v>
       </c>
       <c r="V11" t="n">
         <v>230.9685595385168</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.07889317303479</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C13" t="n">
-        <v>65.27888801843527</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D13" t="n">
-        <v>48.90025241601366</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E13" t="n">
-        <v>47.84800227179311</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F13" t="n">
-        <v>48.31492659997942</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G13" t="n">
-        <v>64.35108710701111</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H13" t="n">
-        <v>53.01713980218871</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I13" t="n">
-        <v>32.94647717468524</v>
+        <v>32.94647717468526</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65991636537674</v>
+        <v>34.65991636537677</v>
       </c>
       <c r="S13" t="n">
-        <v>104.7746029199931</v>
+        <v>104.7746029199932</v>
       </c>
       <c r="T13" t="n">
         <v>127.1870160031714</v>
@@ -1594,7 +1594,7 @@
         <v>126.2990176390768</v>
       </c>
       <c r="Y13" t="n">
-        <v>117.1738853951444</v>
+        <v>117.1738853951445</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1610,19 @@
         <v>275.4734992560195</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.4548033005474</v>
       </c>
       <c r="E14" t="n">
-        <v>288.196940870453</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>307.3687569584301</v>
       </c>
       <c r="G14" t="n">
-        <v>308.7702359084508</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>221.4059562765828</v>
+        <v>221.4059562765829</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.59762315252743</v>
+        <v>70.59762315252745</v>
       </c>
       <c r="T14" t="n">
-        <v>60.34826925405885</v>
+        <v>117.1465288645459</v>
       </c>
       <c r="U14" t="n">
         <v>149.6530179828525</v>
@@ -1667,10 +1667,10 @@
         <v>230.9685595385168</v>
       </c>
       <c r="W14" t="n">
-        <v>256.2686590164737</v>
+        <v>254.4138556351224</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>275.5689172492204</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.07889317303479</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C16" t="n">
-        <v>65.27888801843527</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D16" t="n">
-        <v>48.90025241601366</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E16" t="n">
-        <v>47.84800227179311</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F16" t="n">
-        <v>48.31492659997942</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G16" t="n">
-        <v>64.35108710701111</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H16" t="n">
-        <v>53.01713980218871</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I16" t="n">
-        <v>32.94647717468525</v>
+        <v>32.94647717468526</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65991636537675</v>
+        <v>34.65991636537676</v>
       </c>
       <c r="S16" t="n">
-        <v>104.7746029199931</v>
+        <v>104.7746029199932</v>
       </c>
       <c r="T16" t="n">
         <v>127.1870160031714</v>
@@ -1831,7 +1831,7 @@
         <v>126.2990176390768</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.1738853951444</v>
+        <v>117.1738853951445</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1916469265039</v>
+        <v>224.1916469265038</v>
       </c>
       <c r="C17" t="n">
         <v>212.2029638841856</v>
@@ -1859,7 +1859,7 @@
         <v>245.4997005366169</v>
       </c>
       <c r="H17" t="n">
-        <v>158.135420904749</v>
+        <v>158.1354209047487</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.327087780693619</v>
+        <v>7.327087780693562</v>
       </c>
       <c r="T17" t="n">
-        <v>53.87599349271205</v>
+        <v>53.87599349271199</v>
       </c>
       <c r="U17" t="n">
-        <v>86.3824826110187</v>
+        <v>86.38248261101865</v>
       </c>
       <c r="V17" t="n">
         <v>167.698024166683</v>
@@ -1910,7 +1910,7 @@
         <v>212.2983818773865</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.6949796735853</v>
+        <v>223.6949796735852</v>
       </c>
     </row>
     <row r="18">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.80835780120097</v>
+        <v>15.80835780120091</v>
       </c>
       <c r="C19" t="n">
-        <v>2.008352646601452</v>
+        <v>2.008352646601395</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.080551735177294</v>
+        <v>1.080551735177238</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.50406754815933</v>
+        <v>41.50406754815927</v>
       </c>
       <c r="T19" t="n">
-        <v>63.91648063133756</v>
+        <v>63.91648063133751</v>
       </c>
       <c r="U19" t="n">
-        <v>271.5587350774363</v>
+        <v>271.5587350774368</v>
       </c>
       <c r="V19" t="n">
-        <v>92.21649420082656</v>
+        <v>92.2164942008265</v>
       </c>
       <c r="W19" t="n">
         <v>117.3833802714398</v>
       </c>
       <c r="X19" t="n">
-        <v>63.02848226724294</v>
+        <v>63.02848226724288</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.90335002331062</v>
+        <v>53.90335002331057</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.191646926503</v>
+        <v>224.1916469265038</v>
       </c>
       <c r="C20" t="n">
         <v>212.2029638841856</v>
@@ -2096,7 +2096,7 @@
         <v>245.4997005366169</v>
       </c>
       <c r="H20" t="n">
-        <v>158.135420904749</v>
+        <v>158.1354209047489</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.327087780693619</v>
+        <v>7.327087780693562</v>
       </c>
       <c r="T20" t="n">
-        <v>53.87599349271205</v>
+        <v>53.87599349271199</v>
       </c>
       <c r="U20" t="n">
-        <v>86.3824826110187</v>
+        <v>86.38248261101865</v>
       </c>
       <c r="V20" t="n">
         <v>167.698024166683</v>
@@ -2147,7 +2147,7 @@
         <v>212.2983818773865</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6949796735853</v>
+        <v>223.6949796735852</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.80835780120097</v>
+        <v>15.80835780120091</v>
       </c>
       <c r="C22" t="n">
-        <v>2.008352646601452</v>
+        <v>2.008352646601395</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.080551735177294</v>
+        <v>1.080551735177238</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>137.300838189878</v>
       </c>
       <c r="S22" t="n">
-        <v>41.50406754815933</v>
+        <v>57.36809590977028</v>
       </c>
       <c r="T22" t="n">
-        <v>217.0813471828259</v>
+        <v>63.91648063133751</v>
       </c>
       <c r="U22" t="n">
         <v>118.3938685259479</v>
       </c>
       <c r="V22" t="n">
-        <v>92.21649420082656</v>
+        <v>92.2164942008265</v>
       </c>
       <c r="W22" t="n">
         <v>117.3833802714398</v>
       </c>
       <c r="X22" t="n">
-        <v>63.02848226724294</v>
+        <v>63.02848226724288</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.90335002331062</v>
+        <v>53.90335002331057</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>245.4997005366169</v>
       </c>
       <c r="H23" t="n">
-        <v>158.1354209047489</v>
+        <v>158.135420904749</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.327087780693562</v>
+        <v>7.327087780693574</v>
       </c>
       <c r="T23" t="n">
-        <v>53.87599349271199</v>
+        <v>53.87599349271198</v>
       </c>
       <c r="U23" t="n">
         <v>86.38248261101865</v>
@@ -2476,7 +2476,7 @@
         <v>15.80835780120091</v>
       </c>
       <c r="C25" t="n">
-        <v>4.21737077360983</v>
+        <v>2.008352646601395</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>1.080551735177238</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>137.300838189878</v>
       </c>
       <c r="S25" t="n">
         <v>41.50406754815927</v>
       </c>
       <c r="T25" t="n">
-        <v>63.91648063133751</v>
+        <v>79.78050899294854</v>
       </c>
       <c r="U25" t="n">
         <v>118.3938685259479</v>
@@ -2555,7 +2555,7 @@
         <v>287.4621822983377</v>
       </c>
       <c r="C26" t="n">
-        <v>275.4734992560194</v>
+        <v>275.4734992560195</v>
       </c>
       <c r="D26" t="n">
         <v>266.4548033005474</v>
@@ -2573,7 +2573,7 @@
         <v>221.4059562765828</v>
       </c>
       <c r="I26" t="n">
-        <v>47.94631158407876</v>
+        <v>47.94631158407879</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.59762315252742</v>
+        <v>70.59762315252743</v>
       </c>
       <c r="T26" t="n">
-        <v>117.1465288645458</v>
+        <v>117.1465288645459</v>
       </c>
       <c r="U26" t="n">
         <v>149.6530179828525</v>
@@ -2652,7 +2652,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I27" t="n">
-        <v>57.90206971882209</v>
+        <v>57.90206971882208</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.52047263646533</v>
+        <v>41.5204726364653</v>
       </c>
       <c r="S27" t="n">
         <v>145.9864318313356</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.07889317303477</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C28" t="n">
-        <v>65.27888801843525</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D28" t="n">
-        <v>48.90025241601364</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E28" t="n">
-        <v>47.84800227179309</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F28" t="n">
-        <v>48.3149265999794</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G28" t="n">
-        <v>64.3510871070111</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H28" t="n">
-        <v>53.01713980218869</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I28" t="n">
-        <v>32.94647717468523</v>
+        <v>32.94647717468525</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65991636537673</v>
+        <v>34.65991636537675</v>
       </c>
       <c r="S28" t="n">
-        <v>104.7746029199931</v>
+        <v>104.7746029199932</v>
       </c>
       <c r="T28" t="n">
         <v>127.1870160031714</v>
@@ -2776,10 +2776,10 @@
         <v>180.6539156432736</v>
       </c>
       <c r="X28" t="n">
-        <v>126.2990176390767</v>
+        <v>126.2990176390768</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.1738853951444</v>
+        <v>117.1738853951445</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>308.7702359084508</v>
       </c>
       <c r="H29" t="n">
-        <v>221.4059562765828</v>
+        <v>221.4059562765837</v>
       </c>
       <c r="I29" t="n">
         <v>47.94631158407877</v>
@@ -2846,7 +2846,7 @@
         <v>117.1465288645459</v>
       </c>
       <c r="U29" t="n">
-        <v>149.6530179828518</v>
+        <v>149.6530179828525</v>
       </c>
       <c r="V29" t="n">
         <v>230.9685595385168</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.8724782036177</v>
+        <v>284.8724782036178</v>
       </c>
       <c r="C32" t="n">
-        <v>272.8837951612995</v>
+        <v>272.8837951612996</v>
       </c>
       <c r="D32" t="n">
-        <v>263.8650992058274</v>
+        <v>263.8650992058276</v>
       </c>
       <c r="E32" t="n">
-        <v>285.607236775733</v>
+        <v>285.6072367757331</v>
       </c>
       <c r="F32" t="n">
-        <v>304.7790528637101</v>
+        <v>304.7790528637103</v>
       </c>
       <c r="G32" t="n">
-        <v>306.1805318137308</v>
+        <v>306.1805318137309</v>
       </c>
       <c r="H32" t="n">
-        <v>218.8162521818629</v>
+        <v>218.816252181863</v>
       </c>
       <c r="I32" t="n">
-        <v>45.35660748935879</v>
+        <v>45.35660748935889</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.00791905780747</v>
+        <v>68.00791905780757</v>
       </c>
       <c r="T32" t="n">
-        <v>114.5568247698259</v>
+        <v>114.556824769826</v>
       </c>
       <c r="U32" t="n">
-        <v>147.0633138881325</v>
+        <v>147.0633138881327</v>
       </c>
       <c r="V32" t="n">
-        <v>228.3788554437969</v>
+        <v>228.378855443797</v>
       </c>
       <c r="W32" t="n">
-        <v>253.6789549217538</v>
+        <v>253.6789549217539</v>
       </c>
       <c r="X32" t="n">
-        <v>272.9792131545004</v>
+        <v>272.9792131545005</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.3758109506991</v>
+        <v>284.3758109506992</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.48918907831481</v>
+        <v>76.48918907831491</v>
       </c>
       <c r="C34" t="n">
-        <v>62.68918392371529</v>
+        <v>62.68918392371539</v>
       </c>
       <c r="D34" t="n">
-        <v>46.31054832129368</v>
+        <v>46.31054832129378</v>
       </c>
       <c r="E34" t="n">
-        <v>45.25829817707313</v>
+        <v>45.25829817707323</v>
       </c>
       <c r="F34" t="n">
-        <v>45.72522250525944</v>
+        <v>45.72522250525954</v>
       </c>
       <c r="G34" t="n">
-        <v>61.76138301229113</v>
+        <v>61.76138301229123</v>
       </c>
       <c r="H34" t="n">
-        <v>50.42743570746873</v>
+        <v>50.42743570746883</v>
       </c>
       <c r="I34" t="n">
-        <v>30.35677307996527</v>
+        <v>30.35677307996536</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07021227065677</v>
+        <v>32.07021227065687</v>
       </c>
       <c r="S34" t="n">
-        <v>102.1848988252732</v>
+        <v>102.1848988252733</v>
       </c>
       <c r="T34" t="n">
-        <v>124.5973119084514</v>
+        <v>124.5973119084515</v>
       </c>
       <c r="U34" t="n">
-        <v>179.0746998030617</v>
+        <v>179.0746998030619</v>
       </c>
       <c r="V34" t="n">
-        <v>152.8973254779404</v>
+        <v>152.8973254779405</v>
       </c>
       <c r="W34" t="n">
-        <v>178.0642115485537</v>
+        <v>178.0642115485538</v>
       </c>
       <c r="X34" t="n">
-        <v>123.7093135443568</v>
+        <v>123.7093135443569</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5841813004245</v>
+        <v>114.5841813004246</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>236.9374148203185</v>
       </c>
       <c r="C35" t="n">
-        <v>224.9487317780002</v>
+        <v>224.9487317780003</v>
       </c>
       <c r="D35" t="n">
-        <v>215.9300358225282</v>
+        <v>215.9300358225283</v>
       </c>
       <c r="E35" t="n">
-        <v>237.6721733924337</v>
+        <v>237.6721733924338</v>
       </c>
       <c r="F35" t="n">
-        <v>256.8439894804109</v>
+        <v>256.843989480411</v>
       </c>
       <c r="G35" t="n">
-        <v>258.2454684304315</v>
+        <v>258.2454684304316</v>
       </c>
       <c r="H35" t="n">
-        <v>170.8811887985636</v>
+        <v>170.8811887985637</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.0728556745082</v>
+        <v>20.07285567450828</v>
       </c>
       <c r="T35" t="n">
-        <v>66.62176138652663</v>
+        <v>66.62176138652669</v>
       </c>
       <c r="U35" t="n">
-        <v>99.12825050483329</v>
+        <v>99.12825050483335</v>
       </c>
       <c r="V35" t="n">
-        <v>180.4437920604976</v>
+        <v>180.4437920604977</v>
       </c>
       <c r="W35" t="n">
-        <v>205.7438915384545</v>
+        <v>205.7438915384546</v>
       </c>
       <c r="X35" t="n">
-        <v>225.0441497712011</v>
+        <v>225.0441497712012</v>
       </c>
       <c r="Y35" t="n">
         <v>236.4407475673999</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.55412569501556</v>
+        <v>28.55412569501561</v>
       </c>
       <c r="C37" t="n">
-        <v>14.75412054041604</v>
+        <v>14.7541205404161</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>13.82631962899188</v>
+        <v>13.82631962899194</v>
       </c>
       <c r="H37" t="n">
-        <v>2.492372324169478</v>
+        <v>2.492372324169535</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>77.46465073114699</v>
+        <v>54.24983544197397</v>
       </c>
       <c r="T37" t="n">
-        <v>76.66224852515215</v>
+        <v>76.66224852515221</v>
       </c>
       <c r="U37" t="n">
-        <v>131.1396364197625</v>
+        <v>131.1396364197626</v>
       </c>
       <c r="V37" t="n">
-        <v>104.9622620946411</v>
+        <v>104.9622620946412</v>
       </c>
       <c r="W37" t="n">
-        <v>130.1291481652544</v>
+        <v>130.1291481652545</v>
       </c>
       <c r="X37" t="n">
-        <v>75.77425016105752</v>
+        <v>75.77425016105758</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.64911791712521</v>
+        <v>89.86393320629763</v>
       </c>
     </row>
     <row r="38">
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>18.17731033224807</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>77.46465073114643</v>
+        <v>54.24983544197397</v>
       </c>
       <c r="T40" t="n">
-        <v>76.66224852515221</v>
+        <v>81.69975348207666</v>
       </c>
       <c r="U40" t="n">
         <v>131.1396364197626</v>
@@ -3740,25 +3740,25 @@
         <v>257.8872195726045</v>
       </c>
       <c r="C41" t="n">
-        <v>245.8985365302862</v>
+        <v>245.8985365302863</v>
       </c>
       <c r="D41" t="n">
-        <v>182.6017775041527</v>
+        <v>221.3763682755071</v>
       </c>
       <c r="E41" t="n">
-        <v>258.6219781447197</v>
+        <v>258.6219781447198</v>
       </c>
       <c r="F41" t="n">
-        <v>277.7937942326969</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>279.1952731827175</v>
+        <v>279.1952731827176</v>
       </c>
       <c r="H41" t="n">
         <v>191.8309935508496</v>
       </c>
       <c r="I41" t="n">
-        <v>18.37134885834553</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.02266042679419</v>
+        <v>41.02266042679425</v>
       </c>
       <c r="T41" t="n">
-        <v>87.57156613881261</v>
+        <v>87.57156613881267</v>
       </c>
       <c r="U41" t="n">
         <v>120.0780552571193</v>
@@ -3803,10 +3803,10 @@
         <v>226.6936962907405</v>
       </c>
       <c r="X41" t="n">
-        <v>245.9939545234871</v>
+        <v>245.9939545234872</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>257.3905523196859</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.50393044730154</v>
+        <v>49.5039304473016</v>
       </c>
       <c r="C43" t="n">
-        <v>35.70392529270202</v>
+        <v>35.70392529270208</v>
       </c>
       <c r="D43" t="n">
-        <v>19.32528969028041</v>
+        <v>19.32528969028047</v>
       </c>
       <c r="E43" t="n">
-        <v>18.27303954605986</v>
+        <v>18.27303954605992</v>
       </c>
       <c r="F43" t="n">
-        <v>18.73996387424617</v>
+        <v>18.73996387424623</v>
       </c>
       <c r="G43" t="n">
-        <v>34.77612438127787</v>
+        <v>34.77612438127792</v>
       </c>
       <c r="H43" t="n">
-        <v>23.44217707645546</v>
+        <v>23.44217707645552</v>
       </c>
       <c r="I43" t="n">
-        <v>3.371514448952</v>
+        <v>3.371514448952057</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.084953639643505</v>
+        <v>5.084953639643562</v>
       </c>
       <c r="S43" t="n">
-        <v>75.1996401942599</v>
+        <v>75.19964019425996</v>
       </c>
       <c r="T43" t="n">
-        <v>97.61205327743814</v>
+        <v>97.61205327743819</v>
       </c>
       <c r="U43" t="n">
         <v>152.0894411720485</v>
       </c>
       <c r="V43" t="n">
-        <v>125.9120668469271</v>
+        <v>125.9120668469272</v>
       </c>
       <c r="W43" t="n">
         <v>151.0789529175404</v>
       </c>
       <c r="X43" t="n">
-        <v>96.72405491334351</v>
+        <v>96.72405491334356</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.59892266941119</v>
+        <v>87.59892266941125</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3977,25 @@
         <v>257.8872195726045</v>
       </c>
       <c r="C44" t="n">
-        <v>245.8985365302862</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>236.8798405748142</v>
       </c>
       <c r="E44" t="n">
-        <v>258.6219781447197</v>
+        <v>258.6219781447198</v>
       </c>
       <c r="F44" t="n">
         <v>277.7937942326969</v>
       </c>
       <c r="G44" t="n">
-        <v>279.1952731827175</v>
+        <v>279.1952731827176</v>
       </c>
       <c r="H44" t="n">
-        <v>191.8309935508496</v>
+        <v>191.8309935508497</v>
       </c>
       <c r="I44" t="n">
-        <v>18.37134885834553</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.02266042679419</v>
+        <v>41.02266042679425</v>
       </c>
       <c r="T44" t="n">
-        <v>87.57156613881261</v>
+        <v>87.57156613881267</v>
       </c>
       <c r="U44" t="n">
         <v>120.0780552571193</v>
@@ -4037,13 +4037,13 @@
         <v>201.3935968127836</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>226.6936962907405</v>
       </c>
       <c r="X44" t="n">
-        <v>161.01903542388</v>
+        <v>245.9939545234872</v>
       </c>
       <c r="Y44" t="n">
-        <v>257.3905523196859</v>
+        <v>209.9918223179691</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.50393044730154</v>
+        <v>49.5039304473016</v>
       </c>
       <c r="C46" t="n">
-        <v>35.70392529270202</v>
+        <v>35.70392529270208</v>
       </c>
       <c r="D46" t="n">
-        <v>19.32528969028041</v>
+        <v>19.32528969028047</v>
       </c>
       <c r="E46" t="n">
-        <v>18.27303954605986</v>
+        <v>18.27303954605992</v>
       </c>
       <c r="F46" t="n">
-        <v>18.73996387424617</v>
+        <v>18.73996387424623</v>
       </c>
       <c r="G46" t="n">
-        <v>34.77612438127787</v>
+        <v>34.77612438127792</v>
       </c>
       <c r="H46" t="n">
-        <v>23.44217707645546</v>
+        <v>23.44217707645552</v>
       </c>
       <c r="I46" t="n">
-        <v>3.371514448952</v>
+        <v>3.371514448952057</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.084953639643505</v>
+        <v>5.084953639643562</v>
       </c>
       <c r="S46" t="n">
-        <v>75.1996401942599</v>
+        <v>75.19964019425996</v>
       </c>
       <c r="T46" t="n">
-        <v>97.61205327743814</v>
+        <v>97.61205327743819</v>
       </c>
       <c r="U46" t="n">
         <v>152.0894411720485</v>
       </c>
       <c r="V46" t="n">
-        <v>125.9120668469271</v>
+        <v>125.9120668469272</v>
       </c>
       <c r="W46" t="n">
         <v>151.0789529175404</v>
       </c>
       <c r="X46" t="n">
-        <v>96.72405491334351</v>
+        <v>96.72405491334356</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.59892266941119</v>
+        <v>87.59892266941125</v>
       </c>
     </row>
   </sheetData>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D8" t="n">
         <v>21.02234760148574</v>
@@ -4802,25 +4802,25 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="L8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="M8" t="n">
-        <v>20.6199382928386</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="N8" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O8" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P8" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
@@ -4832,22 +4832,22 @@
         <v>40.03871513172544</v>
       </c>
       <c r="T8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y8" t="n">
-        <v>31.13313425091136</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C9" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D9" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E9" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F9" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I9" t="n">
         <v>0.8007743026345088</v>
@@ -4890,43 +4890,43 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="M9" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N9" t="n">
-        <v>20.21955114152135</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="O9" t="n">
-        <v>30.12913313662339</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="P9" t="n">
-        <v>40.03871513172544</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="Q9" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R9" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="S9" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="T9" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U9" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="V9" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W9" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="X9" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y9" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C10" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D10" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H10" t="n">
         <v>0.8007743026345088</v>
@@ -4963,16 +4963,16 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L10" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M10" t="n">
-        <v>20.6199382928386</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="N10" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O10" t="n">
         <v>40.03871513172544</v>
@@ -4990,22 +4990,22 @@
         <v>40.03871513172544</v>
       </c>
       <c r="T10" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U10" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="V10" t="n">
-        <v>40.03871513172544</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="W10" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="X10" t="n">
-        <v>40.03871513172544</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="Y10" t="n">
-        <v>40.03871513172544</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>870.1146495765191</v>
+        <v>840.4198283114484</v>
       </c>
       <c r="C11" t="n">
-        <v>591.8585897219539</v>
+        <v>840.4198283114484</v>
       </c>
       <c r="D11" t="n">
-        <v>322.712323761805</v>
+        <v>571.2735623512995</v>
       </c>
       <c r="E11" t="n">
-        <v>322.712323761805</v>
+        <v>361.1128177999542</v>
       </c>
       <c r="F11" t="n">
-        <v>322.712323761805</v>
+        <v>50.63932592275208</v>
       </c>
       <c r="G11" t="n">
-        <v>322.712323761805</v>
+        <v>50.63932592275208</v>
       </c>
       <c r="H11" t="n">
-        <v>99.06994368444781</v>
+        <v>50.63932592275208</v>
       </c>
       <c r="I11" t="n">
         <v>50.63932592275207</v>
@@ -5045,10 +5045,10 @@
         <v>474.4309080280416</v>
       </c>
       <c r="L11" t="n">
-        <v>905.3973625869427</v>
+        <v>725.1541802501692</v>
       </c>
       <c r="M11" t="n">
-        <v>1391.080239990411</v>
+        <v>1210.837057653637</v>
       </c>
       <c r="N11" t="n">
         <v>1683.10796338507</v>
@@ -5072,19 +5072,19 @@
         <v>2342.3257385446</v>
       </c>
       <c r="U11" t="n">
-        <v>2220.855895180527</v>
+        <v>2191.161073915457</v>
       </c>
       <c r="V11" t="n">
-        <v>1987.554319889096</v>
+        <v>1957.859498624025</v>
       </c>
       <c r="W11" t="n">
-        <v>1728.697088559325</v>
+        <v>1699.002267294254</v>
       </c>
       <c r="X11" t="n">
-        <v>1450.344646893445</v>
+        <v>1420.649825628375</v>
       </c>
       <c r="Y11" t="n">
-        <v>1160.480490281911</v>
+        <v>1130.78566901684</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>839.4672239188728</v>
       </c>
       <c r="M12" t="n">
-        <v>938.6037153416572</v>
+        <v>1395.87360066356</v>
       </c>
       <c r="N12" t="n">
-        <v>1523.131416247198</v>
+        <v>1980.401301569101</v>
       </c>
       <c r="O12" t="n">
         <v>1982.351834253087</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.9390970238699</v>
+        <v>414.9390970238702</v>
       </c>
       <c r="C13" t="n">
-        <v>349.0008262981777</v>
+        <v>349.000826298178</v>
       </c>
       <c r="D13" t="n">
-        <v>299.6066319385679</v>
+        <v>299.6066319385682</v>
       </c>
       <c r="E13" t="n">
-        <v>251.2753165125143</v>
+        <v>251.2753165125145</v>
       </c>
       <c r="F13" t="n">
-        <v>202.4723603509189</v>
+        <v>202.4723603509191</v>
       </c>
       <c r="G13" t="n">
-        <v>137.4712622630288</v>
+        <v>137.4712622630291</v>
       </c>
       <c r="H13" t="n">
         <v>83.91859579617153</v>
@@ -5197,16 +5197,16 @@
         <v>50.63932592275207</v>
       </c>
       <c r="J13" t="n">
-        <v>110.0880241976687</v>
+        <v>110.0880241976686</v>
       </c>
       <c r="K13" t="n">
-        <v>272.7438500392109</v>
+        <v>272.7438500392108</v>
       </c>
       <c r="L13" t="n">
-        <v>510.0755164020622</v>
+        <v>510.0755164020621</v>
       </c>
       <c r="M13" t="n">
-        <v>766.7021857489991</v>
+        <v>766.702185748999</v>
       </c>
       <c r="N13" t="n">
         <v>1022.877469947108</v>
@@ -5230,19 +5230,19 @@
         <v>1263.784698358185</v>
       </c>
       <c r="U13" t="n">
-        <v>1080.285300481637</v>
+        <v>1080.285300481638</v>
       </c>
       <c r="V13" t="n">
-        <v>923.2276948526877</v>
+        <v>923.227694852688</v>
       </c>
       <c r="W13" t="n">
-        <v>740.7489921827143</v>
+        <v>740.7489921827147</v>
       </c>
       <c r="X13" t="n">
-        <v>613.1742268907176</v>
+        <v>613.1742268907179</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.8167668956222</v>
+        <v>494.8167668956225</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1466.008405993394</v>
+        <v>1132.157523692024</v>
       </c>
       <c r="C14" t="n">
-        <v>1187.752346138829</v>
+        <v>853.901463837459</v>
       </c>
       <c r="D14" t="n">
-        <v>1187.752346138829</v>
+        <v>584.7551978773107</v>
       </c>
       <c r="E14" t="n">
-        <v>896.6443250575635</v>
+        <v>584.7551978773107</v>
       </c>
       <c r="F14" t="n">
-        <v>586.1708331803613</v>
+        <v>274.2817060001085</v>
       </c>
       <c r="G14" t="n">
-        <v>274.281706000108</v>
+        <v>274.2817060001085</v>
       </c>
       <c r="H14" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I14" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J14" t="n">
         <v>167.3214431483646</v>
@@ -5282,46 +5282,46 @@
         <v>474.4309080280416</v>
       </c>
       <c r="L14" t="n">
-        <v>905.3973625869426</v>
+        <v>905.3973625869427</v>
       </c>
       <c r="M14" t="n">
-        <v>1391.08023999041</v>
+        <v>1391.080239990411</v>
       </c>
       <c r="N14" t="n">
-        <v>1683.107963385071</v>
+        <v>1834.393168528417</v>
       </c>
       <c r="O14" t="n">
-        <v>2076.816998319352</v>
+        <v>2228.102203462698</v>
       </c>
       <c r="P14" t="n">
-        <v>2380.681090994257</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="Q14" t="n">
-        <v>2531.966296137604</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="R14" t="n">
-        <v>2531.966296137604</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="S14" t="n">
         <v>2460.655565680505</v>
       </c>
       <c r="T14" t="n">
-        <v>2399.697717949133</v>
+        <v>2342.3257385446</v>
       </c>
       <c r="U14" t="n">
-        <v>2248.533053319989</v>
+        <v>2191.161073915456</v>
       </c>
       <c r="V14" t="n">
-        <v>2015.231478028557</v>
+        <v>1957.859498624025</v>
       </c>
       <c r="W14" t="n">
-        <v>1756.374246698786</v>
+        <v>1700.875806063295</v>
       </c>
       <c r="X14" t="n">
-        <v>1756.374246698786</v>
+        <v>1422.523364397416</v>
       </c>
       <c r="Y14" t="n">
-        <v>1756.374246698786</v>
+        <v>1422.523364397416</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I15" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J15" t="n">
-        <v>50.63932592275208</v>
+        <v>137.5067023934301</v>
       </c>
       <c r="K15" t="n">
-        <v>325.616127339149</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L15" t="n">
-        <v>752.5998474481947</v>
+        <v>839.4672239188728</v>
       </c>
       <c r="M15" t="n">
-        <v>1132.332424376269</v>
+        <v>1395.87360066356</v>
       </c>
       <c r="N15" t="n">
-        <v>1716.860125281809</v>
+        <v>1523.131416247197</v>
       </c>
       <c r="O15" t="n">
-        <v>2176.080543287698</v>
+        <v>1982.351834253086</v>
       </c>
       <c r="P15" t="n">
-        <v>2531.966296137603</v>
+        <v>2338.23758710299</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.966296137603</v>
@@ -5410,52 +5410,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.9390970238696</v>
+        <v>414.9390970238703</v>
       </c>
       <c r="C16" t="n">
-        <v>349.0008262981774</v>
+        <v>349.000826298178</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6066319385677</v>
+        <v>299.6066319385682</v>
       </c>
       <c r="E16" t="n">
-        <v>251.275316512514</v>
+        <v>251.2753165125145</v>
       </c>
       <c r="F16" t="n">
-        <v>202.4723603509186</v>
+        <v>202.472360350919</v>
       </c>
       <c r="G16" t="n">
-        <v>137.4712622630285</v>
+        <v>137.471262263029</v>
       </c>
       <c r="H16" t="n">
-        <v>83.91859579617153</v>
+        <v>83.91859579617176</v>
       </c>
       <c r="I16" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J16" t="n">
-        <v>110.0880241976687</v>
+        <v>110.0880241976688</v>
       </c>
       <c r="K16" t="n">
-        <v>272.7438500392108</v>
+        <v>272.743850039211</v>
       </c>
       <c r="L16" t="n">
-        <v>510.075516402062</v>
+        <v>510.0755164020622</v>
       </c>
       <c r="M16" t="n">
-        <v>766.702185748999</v>
+        <v>766.7021857489995</v>
       </c>
       <c r="N16" t="n">
         <v>1022.877469947108</v>
       </c>
       <c r="O16" t="n">
-        <v>1256.33531818274</v>
+        <v>1256.335318182741</v>
       </c>
       <c r="P16" t="n">
         <v>1449.480405090492</v>
       </c>
       <c r="Q16" t="n">
-        <v>1533.099380467822</v>
+        <v>1533.099380467823</v>
       </c>
       <c r="R16" t="n">
         <v>1498.089363937139</v>
@@ -5464,22 +5464,22 @@
         <v>1392.256431694721</v>
       </c>
       <c r="T16" t="n">
-        <v>1263.784698358184</v>
+        <v>1263.784698358185</v>
       </c>
       <c r="U16" t="n">
-        <v>1080.285300481637</v>
+        <v>1080.285300481638</v>
       </c>
       <c r="V16" t="n">
-        <v>923.2276948526874</v>
+        <v>923.2276948526879</v>
       </c>
       <c r="W16" t="n">
-        <v>740.748992182714</v>
+        <v>740.7489921827147</v>
       </c>
       <c r="X16" t="n">
-        <v>613.1742268907173</v>
+        <v>613.174226890718</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.8167668956219</v>
+        <v>494.8167668956227</v>
       </c>
     </row>
     <row r="17">
@@ -5495,22 +5495,22 @@
         <v>1137.350453655373</v>
       </c>
       <c r="D17" t="n">
-        <v>932.1138193839454</v>
+        <v>932.1138193839452</v>
       </c>
       <c r="E17" t="n">
-        <v>704.9154299914007</v>
+        <v>704.9154299914006</v>
       </c>
       <c r="F17" t="n">
         <v>458.3515698029196</v>
       </c>
       <c r="G17" t="n">
-        <v>210.3720743113875</v>
+        <v>210.3720743113871</v>
       </c>
       <c r="H17" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I17" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J17" t="n">
         <v>167.3214431483646</v>
@@ -5519,7 +5519,7 @@
         <v>474.4309080280416</v>
       </c>
       <c r="L17" t="n">
-        <v>905.3973625869427</v>
+        <v>725.1541802501692</v>
       </c>
       <c r="M17" t="n">
         <v>1210.837057653637</v>
@@ -5531,25 +5531,25 @@
         <v>2076.816998319351</v>
       </c>
       <c r="P17" t="n">
-        <v>2380.681090994257</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q17" t="n">
-        <v>2531.966296137604</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="R17" t="n">
-        <v>2531.966296137604</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.565197369227</v>
+        <v>2524.565197369226</v>
       </c>
       <c r="T17" t="n">
         <v>2470.145001922042</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.88996898162</v>
+        <v>2382.889968981619</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.49802537891</v>
+        <v>2213.498025378909</v>
       </c>
       <c r="W17" t="n">
         <v>2018.550425737859</v>
@@ -5571,25 +5571,25 @@
         <v>916.993594840569</v>
       </c>
       <c r="C18" t="n">
-        <v>755.2899220815237</v>
+        <v>755.2899220815239</v>
       </c>
       <c r="D18" t="n">
-        <v>616.4512850717358</v>
+        <v>616.451285071736</v>
       </c>
       <c r="E18" t="n">
-        <v>469.4232751286071</v>
+        <v>469.4232751286072</v>
       </c>
       <c r="F18" t="n">
-        <v>334.7294770784815</v>
+        <v>334.7294770784816</v>
       </c>
       <c r="G18" t="n">
-        <v>206.2883833353462</v>
+        <v>206.2883833353463</v>
       </c>
       <c r="H18" t="n">
         <v>109.1262650326734</v>
       </c>
       <c r="I18" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J18" t="n">
         <v>137.5067023934301</v>
@@ -5604,13 +5604,13 @@
         <v>1395.87360066356</v>
       </c>
       <c r="N18" t="n">
-        <v>1980.401301569101</v>
+        <v>1716.86012528181</v>
       </c>
       <c r="O18" t="n">
-        <v>1982.351834253086</v>
+        <v>2176.080543287699</v>
       </c>
       <c r="P18" t="n">
-        <v>2338.23758710299</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="Q18" t="n">
         <v>2531.966296137603</v>
@@ -5619,19 +5619,19 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S18" t="n">
-        <v>2342.565382533763</v>
+        <v>2342.565382533764</v>
       </c>
       <c r="T18" t="n">
-        <v>2155.038727509661</v>
+        <v>2155.038727509662</v>
       </c>
       <c r="U18" t="n">
-        <v>1936.562843412812</v>
+        <v>1936.562843412813</v>
       </c>
       <c r="V18" t="n">
-        <v>1708.167220861146</v>
+        <v>1708.167220861147</v>
       </c>
       <c r="W18" t="n">
-        <v>1466.851352094456</v>
+        <v>1466.851352094457</v>
       </c>
       <c r="X18" t="n">
         <v>1268.934363972251</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.75943135889223</v>
+        <v>53.75943135889211</v>
       </c>
       <c r="C19" t="n">
-        <v>51.73079232192107</v>
+        <v>51.730792321921</v>
       </c>
       <c r="D19" t="n">
-        <v>51.73079232192107</v>
+        <v>51.730792321921</v>
       </c>
       <c r="E19" t="n">
-        <v>51.73079232192107</v>
+        <v>51.730792321921</v>
       </c>
       <c r="F19" t="n">
-        <v>51.73079232192107</v>
+        <v>51.730792321921</v>
       </c>
       <c r="G19" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="H19" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I19" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J19" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="K19" t="n">
         <v>111.680639158038</v>
@@ -5698,25 +5698,25 @@
         <v>780.3446311780378</v>
       </c>
       <c r="S19" t="n">
-        <v>738.4213306243415</v>
+        <v>738.4213306243416</v>
       </c>
       <c r="T19" t="n">
-        <v>673.8592289765259</v>
+        <v>673.859228976526</v>
       </c>
       <c r="U19" t="n">
-        <v>399.5574763730548</v>
+        <v>399.5574763730544</v>
       </c>
       <c r="V19" t="n">
-        <v>306.4095024328259</v>
+        <v>306.4095024328256</v>
       </c>
       <c r="W19" t="n">
-        <v>187.8404314515736</v>
+        <v>187.8404314515733</v>
       </c>
       <c r="X19" t="n">
-        <v>124.1752978482979</v>
+        <v>124.1752978482976</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.72746954192351</v>
+        <v>69.72746954192334</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.696881821218</v>
+        <v>1351.696881821217</v>
       </c>
       <c r="C20" t="n">
         <v>1137.350453655373</v>
       </c>
       <c r="D20" t="n">
-        <v>932.1138193839454</v>
+        <v>932.1138193839452</v>
       </c>
       <c r="E20" t="n">
-        <v>704.9154299914007</v>
+        <v>704.9154299914006</v>
       </c>
       <c r="F20" t="n">
-        <v>458.3515698029197</v>
+        <v>458.3515698029196</v>
       </c>
       <c r="G20" t="n">
-        <v>210.3720743113875</v>
+        <v>210.3720743113874</v>
       </c>
       <c r="H20" t="n">
         <v>50.63932592275207</v>
@@ -5750,25 +5750,25 @@
         <v>50.63932592275207</v>
       </c>
       <c r="J20" t="n">
-        <v>50.63932592275207</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K20" t="n">
-        <v>357.7487908024291</v>
+        <v>294.1877256912682</v>
       </c>
       <c r="L20" t="n">
-        <v>788.7152453613301</v>
+        <v>725.1541802501692</v>
       </c>
       <c r="M20" t="n">
-        <v>1274.398122764798</v>
+        <v>1210.837057653637</v>
       </c>
       <c r="N20" t="n">
-        <v>1746.669028496231</v>
+        <v>1683.10796338507</v>
       </c>
       <c r="O20" t="n">
-        <v>2140.378063430512</v>
+        <v>2076.816998319351</v>
       </c>
       <c r="P20" t="n">
-        <v>2444.242156105418</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.966296137603</v>
@@ -5783,19 +5783,19 @@
         <v>2470.145001922042</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.889968981619</v>
+        <v>2382.88996898162</v>
       </c>
       <c r="V20" t="n">
         <v>2213.498025378909</v>
       </c>
       <c r="W20" t="n">
-        <v>2018.550425737858</v>
+        <v>2018.550425737859</v>
       </c>
       <c r="X20" t="n">
-        <v>1804.1076157607</v>
+        <v>1804.107615760701</v>
       </c>
       <c r="Y20" t="n">
-        <v>1578.153090837887</v>
+        <v>1578.153090837888</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>916.9935948405695</v>
+        <v>916.993594840569</v>
       </c>
       <c r="C21" t="n">
-        <v>755.2899220815243</v>
+        <v>755.2899220815237</v>
       </c>
       <c r="D21" t="n">
-        <v>616.4512850717365</v>
+        <v>616.4512850717358</v>
       </c>
       <c r="E21" t="n">
-        <v>469.4232751286077</v>
+        <v>469.4232751286071</v>
       </c>
       <c r="F21" t="n">
-        <v>334.729477078482</v>
+        <v>334.7294770784815</v>
       </c>
       <c r="G21" t="n">
         <v>206.2883833353462</v>
@@ -5829,25 +5829,25 @@
         <v>50.63932592275207</v>
       </c>
       <c r="J21" t="n">
-        <v>50.63932592275207</v>
+        <v>137.5067023934301</v>
       </c>
       <c r="K21" t="n">
-        <v>325.616127339149</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L21" t="n">
-        <v>752.5998474481949</v>
+        <v>839.4672239188728</v>
       </c>
       <c r="M21" t="n">
-        <v>1309.006224192882</v>
+        <v>1395.87360066356</v>
       </c>
       <c r="N21" t="n">
-        <v>1523.131416247198</v>
+        <v>1523.131416247197</v>
       </c>
       <c r="O21" t="n">
-        <v>1982.351834253087</v>
+        <v>1982.351834253086</v>
       </c>
       <c r="P21" t="n">
-        <v>2338.237587102991</v>
+        <v>2338.23758710299</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.966296137603</v>
@@ -5856,22 +5856,22 @@
         <v>2490.026424787638</v>
       </c>
       <c r="S21" t="n">
-        <v>2342.565382533764</v>
+        <v>2342.565382533763</v>
       </c>
       <c r="T21" t="n">
-        <v>2155.038727509662</v>
+        <v>2155.038727509661</v>
       </c>
       <c r="U21" t="n">
-        <v>1936.562843412813</v>
+        <v>1936.562843412812</v>
       </c>
       <c r="V21" t="n">
-        <v>1708.167220861147</v>
+        <v>1708.167220861146</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.851352094457</v>
+        <v>1466.851352094456</v>
       </c>
       <c r="X21" t="n">
-        <v>1268.934363972252</v>
+        <v>1268.934363972251</v>
       </c>
       <c r="Y21" t="n">
         <v>1076.41303762183</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.75943135889222</v>
+        <v>53.75943135889211</v>
       </c>
       <c r="C22" t="n">
-        <v>51.73079232192106</v>
+        <v>51.730792321921</v>
       </c>
       <c r="D22" t="n">
-        <v>51.73079232192106</v>
+        <v>51.730792321921</v>
       </c>
       <c r="E22" t="n">
-        <v>51.73079232192106</v>
+        <v>51.730792321921</v>
       </c>
       <c r="F22" t="n">
-        <v>51.73079232192106</v>
+        <v>51.730792321921</v>
       </c>
       <c r="G22" t="n">
         <v>50.63932592275207</v>
@@ -5932,28 +5932,28 @@
         <v>780.3446311780378</v>
       </c>
       <c r="R22" t="n">
-        <v>780.3446311780378</v>
+        <v>641.6569158347268</v>
       </c>
       <c r="S22" t="n">
-        <v>738.4213306243415</v>
+        <v>583.7093442086962</v>
       </c>
       <c r="T22" t="n">
-        <v>519.147242560881</v>
+        <v>519.1472425608805</v>
       </c>
       <c r="U22" t="n">
-        <v>399.5574763730548</v>
+        <v>399.5574763730544</v>
       </c>
       <c r="V22" t="n">
-        <v>306.4095024328259</v>
+        <v>306.4095024328256</v>
       </c>
       <c r="W22" t="n">
-        <v>187.8404314515736</v>
+        <v>187.8404314515733</v>
       </c>
       <c r="X22" t="n">
-        <v>124.1752978482979</v>
+        <v>124.1752978482976</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.72746954192351</v>
+        <v>69.72746954192334</v>
       </c>
     </row>
     <row r="23">
@@ -5972,19 +5972,19 @@
         <v>932.1138193839456</v>
       </c>
       <c r="E23" t="n">
-        <v>704.9154299914007</v>
+        <v>704.9154299914011</v>
       </c>
       <c r="F23" t="n">
-        <v>458.3515698029196</v>
+        <v>458.35156980292</v>
       </c>
       <c r="G23" t="n">
         <v>210.3720743113874</v>
       </c>
       <c r="H23" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I23" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J23" t="n">
         <v>167.3214431483646</v>
@@ -5999,25 +5999,25 @@
         <v>1391.080239990411</v>
       </c>
       <c r="N23" t="n">
-        <v>1683.10796338507</v>
+        <v>1863.351145721844</v>
       </c>
       <c r="O23" t="n">
-        <v>2076.816998319351</v>
+        <v>2257.060180656125</v>
       </c>
       <c r="P23" t="n">
-        <v>2380.681090994257</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q23" t="n">
-        <v>2531.966296137604</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="R23" t="n">
-        <v>2531.966296137604</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="S23" t="n">
         <v>2524.565197369227</v>
       </c>
       <c r="T23" t="n">
-        <v>2470.145001922042</v>
+        <v>2470.145001922043</v>
       </c>
       <c r="U23" t="n">
         <v>2382.88996898162</v>
@@ -6063,28 +6063,28 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I24" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J24" t="n">
-        <v>137.5067023934301</v>
+        <v>107.2205371805719</v>
       </c>
       <c r="K24" t="n">
-        <v>412.483503809827</v>
+        <v>382.1973385969688</v>
       </c>
       <c r="L24" t="n">
-        <v>839.4672239188728</v>
+        <v>382.1973385969688</v>
       </c>
       <c r="M24" t="n">
-        <v>1395.87360066356</v>
+        <v>938.6037153416563</v>
       </c>
       <c r="N24" t="n">
-        <v>1716.860125281809</v>
+        <v>1523.131416247197</v>
       </c>
       <c r="O24" t="n">
-        <v>2176.080543287698</v>
+        <v>1982.351834253086</v>
       </c>
       <c r="P24" t="n">
-        <v>2531.966296137603</v>
+        <v>2338.23758710299</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.966296137603</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.4714177745377</v>
+        <v>53.75943135889211</v>
       </c>
       <c r="C25" t="n">
-        <v>204.2114472961439</v>
+        <v>51.730792321921</v>
       </c>
       <c r="D25" t="n">
-        <v>204.2114472961439</v>
+        <v>51.730792321921</v>
       </c>
       <c r="E25" t="n">
-        <v>204.2114472961439</v>
+        <v>51.730792321921</v>
       </c>
       <c r="F25" t="n">
-        <v>51.73079232192101</v>
+        <v>51.730792321921</v>
       </c>
       <c r="G25" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="H25" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="I25" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="J25" t="n">
-        <v>50.63932592275208</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="K25" t="n">
         <v>111.680639158038</v>
@@ -6169,28 +6169,28 @@
         <v>780.3446311780378</v>
       </c>
       <c r="R25" t="n">
-        <v>780.3446311780378</v>
+        <v>641.6569158347268</v>
       </c>
       <c r="S25" t="n">
-        <v>738.4213306243416</v>
+        <v>599.7336152810306</v>
       </c>
       <c r="T25" t="n">
-        <v>673.859228976526</v>
+        <v>519.1472425608805</v>
       </c>
       <c r="U25" t="n">
-        <v>554.2694627886999</v>
+        <v>399.5574763730544</v>
       </c>
       <c r="V25" t="n">
-        <v>461.1214888484711</v>
+        <v>306.4095024328256</v>
       </c>
       <c r="W25" t="n">
-        <v>342.5524178672188</v>
+        <v>187.8404314515733</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8872842639432</v>
+        <v>124.1752978482976</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.4394559575689</v>
+        <v>69.72746954192334</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1802.833564437765</v>
+        <v>1802.833564437766</v>
       </c>
       <c r="C26" t="n">
-        <v>1524.5775045832</v>
+        <v>1524.577504583201</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.431238623051</v>
+        <v>1255.431238623052</v>
       </c>
       <c r="E26" t="n">
-        <v>964.3232175417858</v>
+        <v>964.3232175417864</v>
       </c>
       <c r="F26" t="n">
-        <v>653.8497256645836</v>
+        <v>653.8497256645842</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9605984843303</v>
+        <v>341.9605984843305</v>
       </c>
       <c r="H26" t="n">
-        <v>118.3182184069741</v>
+        <v>118.3182184069742</v>
       </c>
       <c r="I26" t="n">
-        <v>69.88760064527841</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J26" t="n">
-        <v>192.3395430980098</v>
+        <v>288.1842304771473</v>
       </c>
       <c r="K26" t="n">
-        <v>601.063520583943</v>
+        <v>696.9082079630805</v>
       </c>
       <c r="L26" t="n">
-        <v>1133.6444877491</v>
+        <v>1229.489175128238</v>
       </c>
       <c r="M26" t="n">
-        <v>1720.941877758824</v>
+        <v>1816.786565137962</v>
       </c>
       <c r="N26" t="n">
-        <v>2294.827296096514</v>
+        <v>2390.671983475651</v>
       </c>
       <c r="O26" t="n">
-        <v>2790.150843637051</v>
+        <v>2885.995531016189</v>
       </c>
       <c r="P26" t="n">
-        <v>3195.629448918213</v>
+        <v>3195.629448918214</v>
       </c>
       <c r="Q26" t="n">
-        <v>3448.529166667816</v>
+        <v>3448.529166667817</v>
       </c>
       <c r="R26" t="n">
-        <v>3494.38003226392</v>
+        <v>3494.380032263922</v>
       </c>
       <c r="S26" t="n">
-        <v>3423.069301806822</v>
+        <v>3423.069301806823</v>
       </c>
       <c r="T26" t="n">
-        <v>3304.739474670917</v>
+        <v>3304.739474670918</v>
       </c>
       <c r="U26" t="n">
-        <v>3153.574810041773</v>
+        <v>3153.574810041774</v>
       </c>
       <c r="V26" t="n">
-        <v>2920.273234750342</v>
+        <v>2920.273234750343</v>
       </c>
       <c r="W26" t="n">
-        <v>2661.416003420571</v>
+        <v>2661.416003420572</v>
       </c>
       <c r="X26" t="n">
-        <v>2383.063561754691</v>
+        <v>2383.063561754692</v>
       </c>
       <c r="Y26" t="n">
-        <v>2093.199405143157</v>
+        <v>2093.199405143158</v>
       </c>
     </row>
     <row r="27">
@@ -6291,34 +6291,34 @@
         <v>488.6715498511335</v>
       </c>
       <c r="F27" t="n">
-        <v>353.9777518010078</v>
+        <v>353.9777518010079</v>
       </c>
       <c r="G27" t="n">
-        <v>225.5366580578725</v>
+        <v>225.5366580578726</v>
       </c>
       <c r="H27" t="n">
         <v>128.3745397551997</v>
       </c>
       <c r="I27" t="n">
-        <v>69.88760064527841</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J27" t="n">
-        <v>156.7549771159564</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="K27" t="n">
-        <v>431.7317785323534</v>
+        <v>344.8644020616754</v>
       </c>
       <c r="L27" t="n">
-        <v>858.7154986413991</v>
+        <v>771.8481221707214</v>
       </c>
       <c r="M27" t="n">
-        <v>1415.121875386087</v>
+        <v>957.8519900641827</v>
       </c>
       <c r="N27" t="n">
-        <v>1898.265443819628</v>
+        <v>1542.379690969723</v>
       </c>
       <c r="O27" t="n">
-        <v>2357.485861825517</v>
+        <v>2001.600108975612</v>
       </c>
       <c r="P27" t="n">
         <v>2357.485861825517</v>
@@ -6373,31 +6373,31 @@
         <v>221.7206350734452</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7195369855552</v>
+        <v>156.7195369855551</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1668705186978</v>
+        <v>103.1668705186979</v>
       </c>
       <c r="I28" t="n">
-        <v>69.88760064527841</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J28" t="n">
-        <v>129.3362989201948</v>
+        <v>129.336298920195</v>
       </c>
       <c r="K28" t="n">
-        <v>291.992124761737</v>
+        <v>291.9921247617369</v>
       </c>
       <c r="L28" t="n">
         <v>529.3237911245883</v>
       </c>
       <c r="M28" t="n">
-        <v>785.9504604715253</v>
+        <v>785.9504604715254</v>
       </c>
       <c r="N28" t="n">
-        <v>1042.125744669634</v>
+        <v>1042.125744669635</v>
       </c>
       <c r="O28" t="n">
-        <v>1275.583592905266</v>
+        <v>1275.583592905267</v>
       </c>
       <c r="P28" t="n">
         <v>1468.728679813018</v>
@@ -6418,13 +6418,13 @@
         <v>1099.533575204164</v>
       </c>
       <c r="V28" t="n">
-        <v>942.4759695752139</v>
+        <v>942.4759695752141</v>
       </c>
       <c r="W28" t="n">
-        <v>759.9972669052405</v>
+        <v>759.9972669052407</v>
       </c>
       <c r="X28" t="n">
-        <v>632.4225016132438</v>
+        <v>632.422501613244</v>
       </c>
       <c r="Y28" t="n">
         <v>514.0650416181485</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1802.833564437766</v>
+        <v>1802.833564437767</v>
       </c>
       <c r="C29" t="n">
-        <v>1524.577504583201</v>
+        <v>1524.577504583202</v>
       </c>
       <c r="D29" t="n">
-        <v>1255.431238623052</v>
+        <v>1255.431238623053</v>
       </c>
       <c r="E29" t="n">
-        <v>964.3232175417861</v>
+        <v>964.323217541787</v>
       </c>
       <c r="F29" t="n">
-        <v>653.849725664584</v>
+        <v>653.8497256645849</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9605984843305</v>
+        <v>341.9605984843315</v>
       </c>
       <c r="H29" t="n">
-        <v>118.3182184069741</v>
+        <v>118.3182184069742</v>
       </c>
       <c r="I29" t="n">
-        <v>69.88760064527841</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J29" t="n">
         <v>288.1842304771471</v>
       </c>
       <c r="K29" t="n">
-        <v>696.9082079630805</v>
+        <v>646.914386180049</v>
       </c>
       <c r="L29" t="n">
-        <v>1229.489175128238</v>
+        <v>1179.495353345206</v>
       </c>
       <c r="M29" t="n">
-        <v>1816.786565137962</v>
+        <v>1766.79274335493</v>
       </c>
       <c r="N29" t="n">
-        <v>2390.671983475651</v>
+        <v>2340.67816169262</v>
       </c>
       <c r="O29" t="n">
-        <v>2885.995531016188</v>
+        <v>2836.001709233157</v>
       </c>
       <c r="P29" t="n">
-        <v>3291.47413629735</v>
+        <v>3241.480314514319</v>
       </c>
       <c r="Q29" t="n">
-        <v>3448.529166667816</v>
+        <v>3494.380032263922</v>
       </c>
       <c r="R29" t="n">
-        <v>3494.38003226392</v>
+        <v>3494.380032263922</v>
       </c>
       <c r="S29" t="n">
-        <v>3423.069301806822</v>
+        <v>3423.069301806823</v>
       </c>
       <c r="T29" t="n">
-        <v>3304.739474670917</v>
+        <v>3304.739474670919</v>
       </c>
       <c r="U29" t="n">
-        <v>3153.574810041774</v>
+        <v>3153.574810041775</v>
       </c>
       <c r="V29" t="n">
-        <v>2920.273234750342</v>
+        <v>2920.273234750343</v>
       </c>
       <c r="W29" t="n">
-        <v>2661.416003420571</v>
+        <v>2661.416003420572</v>
       </c>
       <c r="X29" t="n">
-        <v>2383.063561754692</v>
+        <v>2383.063561754693</v>
       </c>
       <c r="Y29" t="n">
-        <v>2093.199405143157</v>
+        <v>2093.199405143158</v>
       </c>
     </row>
     <row r="30">
@@ -6528,31 +6528,31 @@
         <v>488.6715498511335</v>
       </c>
       <c r="F30" t="n">
-        <v>353.9777518010078</v>
+        <v>353.9777518010079</v>
       </c>
       <c r="G30" t="n">
-        <v>225.5366580578725</v>
+        <v>225.5366580578726</v>
       </c>
       <c r="H30" t="n">
         <v>128.3745397551997</v>
       </c>
       <c r="I30" t="n">
-        <v>69.88760064527841</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J30" t="n">
-        <v>156.7549771159564</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="K30" t="n">
-        <v>431.7317785323534</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="L30" t="n">
-        <v>431.7317785323534</v>
+        <v>496.8713207543242</v>
       </c>
       <c r="M30" t="n">
-        <v>988.1381552770408</v>
+        <v>1053.277697499012</v>
       </c>
       <c r="N30" t="n">
-        <v>1572.665856182581</v>
+        <v>1542.379690969723</v>
       </c>
       <c r="O30" t="n">
         <v>2001.600108975612</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>434.187371746396</v>
+        <v>434.1873717463965</v>
       </c>
       <c r="C31" t="n">
-        <v>368.2491010207038</v>
+        <v>368.2491010207044</v>
       </c>
       <c r="D31" t="n">
-        <v>318.854906661094</v>
+        <v>318.8549066610946</v>
       </c>
       <c r="E31" t="n">
-        <v>270.5235912350404</v>
+        <v>270.523591235041</v>
       </c>
       <c r="F31" t="n">
-        <v>221.720635073445</v>
+        <v>221.7206350734456</v>
       </c>
       <c r="G31" t="n">
-        <v>156.719536985555</v>
+        <v>156.7195369855556</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1668705186978</v>
+        <v>103.1668705186979</v>
       </c>
       <c r="I31" t="n">
-        <v>69.88760064527841</v>
+        <v>69.88760064527844</v>
       </c>
       <c r="J31" t="n">
-        <v>129.3362989201949</v>
+        <v>129.336298920195</v>
       </c>
       <c r="K31" t="n">
-        <v>291.9921247617371</v>
+        <v>291.9921247617372</v>
       </c>
       <c r="L31" t="n">
-        <v>529.3237911245884</v>
+        <v>529.3237911245885</v>
       </c>
       <c r="M31" t="n">
-        <v>785.9504604715253</v>
+        <v>785.9504604715255</v>
       </c>
       <c r="N31" t="n">
-        <v>1042.125744669634</v>
+        <v>1042.125744669635</v>
       </c>
       <c r="O31" t="n">
         <v>1275.583592905267</v>
@@ -6655,16 +6655,16 @@
         <v>1099.533575204164</v>
       </c>
       <c r="V31" t="n">
-        <v>942.4759695752139</v>
+        <v>942.4759695752141</v>
       </c>
       <c r="W31" t="n">
-        <v>759.9972669052405</v>
+        <v>759.9972669052407</v>
       </c>
       <c r="X31" t="n">
-        <v>632.4225016132438</v>
+        <v>632.422501613244</v>
       </c>
       <c r="Y31" t="n">
-        <v>514.0650416181483</v>
+        <v>514.0650416181488</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1783.721751081554</v>
+        <v>1783.721751081556</v>
       </c>
       <c r="C32" t="n">
-        <v>1508.081553948929</v>
+        <v>1508.08155394893</v>
       </c>
       <c r="D32" t="n">
-        <v>1241.551150710719</v>
+        <v>1241.551150710721</v>
       </c>
       <c r="E32" t="n">
-        <v>953.0589923513933</v>
+        <v>953.0589923513944</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2013631961305</v>
+        <v>645.2013631961315</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9280987378165</v>
+        <v>335.9280987378174</v>
       </c>
       <c r="H32" t="n">
-        <v>114.9015813824003</v>
+        <v>114.9015813824004</v>
       </c>
       <c r="I32" t="n">
-        <v>69.0868263426439</v>
+        <v>69.08682634264393</v>
       </c>
       <c r="J32" t="n">
-        <v>185.7689435682564</v>
+        <v>289.9472632282854</v>
       </c>
       <c r="K32" t="n">
-        <v>597.0567281079625</v>
+        <v>701.2350477679913</v>
       </c>
       <c r="L32" t="n">
-        <v>1132.201502326893</v>
+        <v>1236.379821986921</v>
       </c>
       <c r="M32" t="n">
         <v>1722.062699390389</v>
       </c>
       <c r="N32" t="n">
-        <v>2244.533352749697</v>
+        <v>2298.511924781851</v>
       </c>
       <c r="O32" t="n">
-        <v>2742.420707344007</v>
+        <v>2796.399279376161</v>
       </c>
       <c r="P32" t="n">
-        <v>3150.463119678941</v>
+        <v>3204.441691711095</v>
       </c>
       <c r="Q32" t="n">
-        <v>3405.926644482317</v>
+        <v>3405.926644482319</v>
       </c>
       <c r="R32" t="n">
-        <v>3454.341317132195</v>
+        <v>3454.341317132196</v>
       </c>
       <c r="S32" t="n">
-        <v>3385.646449397036</v>
+        <v>3385.646449397037</v>
       </c>
       <c r="T32" t="n">
-        <v>3269.93248498307</v>
+        <v>3269.932484983072</v>
       </c>
       <c r="U32" t="n">
-        <v>3121.383683075866</v>
+        <v>3121.383683075867</v>
       </c>
       <c r="V32" t="n">
-        <v>2890.697970506374</v>
+        <v>2890.697970506375</v>
       </c>
       <c r="W32" t="n">
-        <v>2634.456601898542</v>
+        <v>2634.456601898543</v>
       </c>
       <c r="X32" t="n">
-        <v>2358.720022954602</v>
+        <v>2358.720022954603</v>
       </c>
       <c r="Y32" t="n">
-        <v>2071.471729065006</v>
+        <v>2071.471729065008</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>127.5737654525652</v>
       </c>
       <c r="I33" t="n">
-        <v>69.0868263426439</v>
+        <v>69.08682634264393</v>
       </c>
       <c r="J33" t="n">
-        <v>155.9542028133219</v>
+        <v>69.08682634264393</v>
       </c>
       <c r="K33" t="n">
-        <v>430.9310042297188</v>
+        <v>344.0636277590409</v>
       </c>
       <c r="L33" t="n">
-        <v>857.9147243387647</v>
+        <v>771.0473478680867</v>
       </c>
       <c r="M33" t="n">
-        <v>1414.321101083452</v>
+        <v>1327.453724612774</v>
       </c>
       <c r="N33" t="n">
-        <v>1735.307625701701</v>
+        <v>1911.981425518315</v>
       </c>
       <c r="O33" t="n">
         <v>2194.52804370759</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.075558390186</v>
+        <v>415.0755583901868</v>
       </c>
       <c r="C34" t="n">
-        <v>351.7531503864332</v>
+        <v>351.7531503864338</v>
       </c>
       <c r="D34" t="n">
-        <v>304.9748187487629</v>
+        <v>304.9748187487634</v>
       </c>
       <c r="E34" t="n">
-        <v>259.2593660446486</v>
+        <v>259.259366044649</v>
       </c>
       <c r="F34" t="n">
-        <v>213.0722726049925</v>
+        <v>213.0722726049929</v>
       </c>
       <c r="G34" t="n">
-        <v>150.6870372390419</v>
+        <v>150.6870372390421</v>
       </c>
       <c r="H34" t="n">
-        <v>99.75023349412398</v>
+        <v>99.7502334941241</v>
       </c>
       <c r="I34" t="n">
-        <v>69.0868263426439</v>
+        <v>69.08682634264393</v>
       </c>
       <c r="J34" t="n">
-        <v>69.0868263426439</v>
+        <v>131.0993316713332</v>
       </c>
       <c r="K34" t="n">
-        <v>233.9547045854361</v>
+        <v>296.318964566648</v>
       </c>
       <c r="L34" t="n">
-        <v>473.8501780020601</v>
+        <v>473.8501780020621</v>
       </c>
       <c r="M34" t="n">
-        <v>733.0406544027699</v>
+        <v>733.0406544027717</v>
       </c>
       <c r="N34" t="n">
-        <v>991.7797456546517</v>
+        <v>991.7797456546534</v>
       </c>
       <c r="O34" t="n">
-        <v>1227.801400944057</v>
+        <v>1227.801400944058</v>
       </c>
       <c r="P34" t="n">
-        <v>1423.510294905581</v>
+        <v>1423.510294905582</v>
       </c>
       <c r="Q34" t="n">
-        <v>1509.693077336684</v>
+        <v>1509.693077336686</v>
       </c>
       <c r="R34" t="n">
-        <v>1477.29892352794</v>
+        <v>1477.298923527941</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.081854007462</v>
+        <v>1374.081854007464</v>
       </c>
       <c r="T34" t="n">
-        <v>1248.225983392865</v>
+        <v>1248.225983392866</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.342448238257</v>
+        <v>1067.342448238258</v>
       </c>
       <c r="V34" t="n">
-        <v>912.9007053312463</v>
+        <v>912.9007053312475</v>
       </c>
       <c r="W34" t="n">
-        <v>733.0378653832123</v>
+        <v>733.0378653832134</v>
       </c>
       <c r="X34" t="n">
-        <v>608.0789628131549</v>
+        <v>608.078962813156</v>
       </c>
       <c r="Y34" t="n">
-        <v>492.3373655399989</v>
+        <v>492.3373655399998</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1205.401451068237</v>
       </c>
       <c r="D35" t="n">
-        <v>987.2903037727542</v>
+        <v>987.2903037727535</v>
       </c>
       <c r="E35" t="n">
-        <v>747.2174013561545</v>
+        <v>747.2174013561537</v>
       </c>
       <c r="F35" t="n">
-        <v>487.7790281436182</v>
+        <v>487.7790281436173</v>
       </c>
       <c r="G35" t="n">
-        <v>226.9250196280298</v>
+        <v>226.9250196280299</v>
       </c>
       <c r="H35" t="n">
         <v>54.31775821533929</v>
@@ -6935,13 +6935,13 @@
         <v>54.31775821533929</v>
       </c>
       <c r="J35" t="n">
-        <v>170.9998754409519</v>
+        <v>170.9998754409517</v>
       </c>
       <c r="K35" t="n">
-        <v>478.1093403206289</v>
+        <v>478.1093403206287</v>
       </c>
       <c r="L35" t="n">
-        <v>909.0757948795301</v>
+        <v>909.0757948795298</v>
       </c>
       <c r="M35" t="n">
         <v>1394.758672282998</v>
@@ -6971,13 +6971,13 @@
         <v>2528.188044538815</v>
       </c>
       <c r="V35" t="n">
-        <v>2345.92158791205</v>
+        <v>2345.921587912049</v>
       </c>
       <c r="W35" t="n">
         <v>2138.099475246944</v>
       </c>
       <c r="X35" t="n">
-        <v>1910.782152245731</v>
+        <v>1910.78215224573</v>
       </c>
       <c r="Y35" t="n">
         <v>1671.953114298862</v>
@@ -7020,16 +7020,16 @@
         <v>416.1619361024142</v>
       </c>
       <c r="L36" t="n">
-        <v>843.1456562114599</v>
+        <v>741.761523739461</v>
       </c>
       <c r="M36" t="n">
-        <v>1399.552032956147</v>
+        <v>1298.167900484149</v>
       </c>
       <c r="N36" t="n">
-        <v>1526.809848539784</v>
+        <v>1882.695601389689</v>
       </c>
       <c r="O36" t="n">
-        <v>1986.030266545673</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="P36" t="n">
         <v>2341.916019395578</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>85.70443750178111</v>
+        <v>85.70443750178129</v>
       </c>
       <c r="C37" t="n">
-        <v>70.80128544075481</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="D37" t="n">
-        <v>70.80128544075481</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="E37" t="n">
-        <v>70.80128544075481</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="F37" t="n">
-        <v>70.80128544075481</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="G37" t="n">
-        <v>56.83530601753068</v>
+        <v>56.83530601753074</v>
       </c>
       <c r="H37" t="n">
         <v>54.31775821533929</v>
@@ -7120,25 +7120,25 @@
         <v>784.0230634706251</v>
       </c>
       <c r="S37" t="n">
-        <v>705.7759415199715</v>
+        <v>729.2252498928735</v>
       </c>
       <c r="T37" t="n">
-        <v>628.3393268481007</v>
+        <v>651.7886352210026</v>
       </c>
       <c r="U37" t="n">
-        <v>495.8750476362194</v>
+        <v>519.3243560091212</v>
       </c>
       <c r="V37" t="n">
-        <v>389.8525606719354</v>
+        <v>413.3018690448371</v>
       </c>
       <c r="W37" t="n">
-        <v>258.4089766666279</v>
+        <v>281.8582850395296</v>
       </c>
       <c r="X37" t="n">
-        <v>181.869330039297</v>
+        <v>205.3186384121987</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.5469887088675</v>
+        <v>114.5469887088678</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>747.2174013561537</v>
       </c>
       <c r="F38" t="n">
-        <v>487.7790281436174</v>
+        <v>487.7790281436173</v>
       </c>
       <c r="G38" t="n">
-        <v>226.9250196280299</v>
+        <v>226.9250196280298</v>
       </c>
       <c r="H38" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="I38" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="J38" t="n">
-        <v>170.9998754409518</v>
+        <v>170.9998754409514</v>
       </c>
       <c r="K38" t="n">
-        <v>478.1093403206289</v>
+        <v>478.1093403206284</v>
       </c>
       <c r="L38" t="n">
-        <v>909.0757948795299</v>
+        <v>909.0757948795294</v>
       </c>
       <c r="M38" t="n">
-        <v>1394.758672282998</v>
+        <v>1394.758672282997</v>
       </c>
       <c r="N38" t="n">
-        <v>1867.029578014431</v>
+        <v>1867.02957801443</v>
       </c>
       <c r="O38" t="n">
-        <v>2260.738612948712</v>
+        <v>2260.738612948711</v>
       </c>
       <c r="P38" t="n">
         <v>2564.602705623617</v>
       </c>
       <c r="Q38" t="n">
-        <v>2715.887910766965</v>
+        <v>2715.887910766964</v>
       </c>
       <c r="R38" t="n">
         <v>2715.887910766965</v>
@@ -7236,7 +7236,7 @@
         <v>620.1297173643231</v>
       </c>
       <c r="E39" t="n">
-        <v>473.1017074211944</v>
+        <v>473.1017074211943</v>
       </c>
       <c r="F39" t="n">
         <v>338.4079093710687</v>
@@ -7248,19 +7248,19 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I39" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="J39" t="n">
-        <v>54.31775821533931</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="K39" t="n">
-        <v>329.2945596317363</v>
+        <v>416.1619361024142</v>
       </c>
       <c r="L39" t="n">
-        <v>756.2782797407821</v>
+        <v>843.1456562114599</v>
       </c>
       <c r="M39" t="n">
-        <v>1312.68465648547</v>
+        <v>1399.552032956147</v>
       </c>
       <c r="N39" t="n">
         <v>1526.809848539784</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.7044375017813</v>
+        <v>85.70443750178127</v>
       </c>
       <c r="C40" t="n">
-        <v>70.80128544075494</v>
+        <v>70.80128544075491</v>
       </c>
       <c r="D40" t="n">
-        <v>70.80128544075494</v>
+        <v>70.80128544075491</v>
       </c>
       <c r="E40" t="n">
-        <v>70.80128544075494</v>
+        <v>70.80128544075491</v>
       </c>
       <c r="F40" t="n">
-        <v>70.80128544075494</v>
+        <v>70.80128544075491</v>
       </c>
       <c r="G40" t="n">
-        <v>56.83530601753076</v>
+        <v>56.83530601753073</v>
       </c>
       <c r="H40" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="I40" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="J40" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="K40" t="n">
         <v>115.3590714506253</v>
       </c>
       <c r="L40" t="n">
-        <v>251.0762252072204</v>
+        <v>251.0762252072203</v>
       </c>
       <c r="M40" t="n">
-        <v>406.0883819479011</v>
+        <v>406.088381947901</v>
       </c>
       <c r="N40" t="n">
         <v>560.6491535397539</v>
@@ -7351,13 +7351,13 @@
         <v>784.0230634706251</v>
       </c>
       <c r="Q40" t="n">
-        <v>784.0230634706251</v>
+        <v>765.6621439431018</v>
       </c>
       <c r="R40" t="n">
-        <v>784.0230634706251</v>
+        <v>765.6621439431018</v>
       </c>
       <c r="S40" t="n">
-        <v>705.7759415199721</v>
+        <v>710.8643303653503</v>
       </c>
       <c r="T40" t="n">
         <v>628.3393268481011</v>
@@ -7372,7 +7372,7 @@
         <v>258.4089766666282</v>
       </c>
       <c r="X40" t="n">
-        <v>181.8693300392974</v>
+        <v>181.8693300392973</v>
       </c>
       <c r="Y40" t="n">
         <v>114.5469887088678</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1523.321497613085</v>
+        <v>1263.331040724511</v>
       </c>
       <c r="C41" t="n">
-        <v>1274.939137481483</v>
+        <v>1014.948680592909</v>
       </c>
       <c r="D41" t="n">
-        <v>1090.492897578298</v>
+        <v>791.3361873853262</v>
       </c>
       <c r="E41" t="n">
-        <v>829.2585762199955</v>
+        <v>530.1018660270236</v>
       </c>
       <c r="F41" t="n">
-        <v>548.6587840657562</v>
+        <v>530.1018660270236</v>
       </c>
       <c r="G41" t="n">
-        <v>266.6433566084657</v>
+        <v>248.086438569733</v>
       </c>
       <c r="H41" t="n">
-        <v>72.87467625407217</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="I41" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="J41" t="n">
         <v>170.9998754409518</v>
       </c>
       <c r="K41" t="n">
-        <v>478.1093403206289</v>
+        <v>478.1093403206284</v>
       </c>
       <c r="L41" t="n">
-        <v>909.0757948795299</v>
+        <v>909.0757948795294</v>
       </c>
       <c r="M41" t="n">
-        <v>1394.758672282998</v>
+        <v>1394.758672282997</v>
       </c>
       <c r="N41" t="n">
-        <v>1867.029578014431</v>
+        <v>1867.02957801443</v>
       </c>
       <c r="O41" t="n">
-        <v>2260.738612948712</v>
+        <v>2260.738612948711</v>
       </c>
       <c r="P41" t="n">
         <v>2564.602705623617</v>
       </c>
       <c r="Q41" t="n">
-        <v>2715.887910766965</v>
+        <v>2715.887910766964</v>
       </c>
       <c r="R41" t="n">
-        <v>2715.887910766965</v>
+        <v>2715.887910766964</v>
       </c>
       <c r="S41" t="n">
-        <v>2674.45088003283</v>
+        <v>2674.450880032829</v>
       </c>
       <c r="T41" t="n">
-        <v>2585.994752619888</v>
+        <v>2585.994752619886</v>
       </c>
       <c r="U41" t="n">
-        <v>2464.703787713707</v>
+        <v>2464.703787713705</v>
       </c>
       <c r="V41" t="n">
-        <v>2261.275912145239</v>
+        <v>2261.275912145237</v>
       </c>
       <c r="W41" t="n">
-        <v>2032.29238053843</v>
+        <v>2032.292380538428</v>
       </c>
       <c r="X41" t="n">
-        <v>1783.813638595514</v>
+        <v>1783.813638595512</v>
       </c>
       <c r="Y41" t="n">
-        <v>1783.813638595514</v>
+        <v>1523.82318170694</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.1297173643231</v>
       </c>
       <c r="E42" t="n">
-        <v>473.1017074211944</v>
+        <v>473.1017074211943</v>
       </c>
       <c r="F42" t="n">
         <v>338.4079093710687</v>
@@ -7485,22 +7485,22 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I42" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="J42" t="n">
         <v>141.1851346860173</v>
       </c>
       <c r="K42" t="n">
-        <v>416.1619361024142</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="L42" t="n">
-        <v>843.1456562114601</v>
+        <v>568.1688547950631</v>
       </c>
       <c r="M42" t="n">
-        <v>1399.552032956148</v>
+        <v>1124.575231539751</v>
       </c>
       <c r="N42" t="n">
-        <v>1526.809848539784</v>
+        <v>1709.102932445291</v>
       </c>
       <c r="O42" t="n">
         <v>1986.030266545673</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>209.5016312557169</v>
+        <v>209.5016312557173</v>
       </c>
       <c r="C43" t="n">
-        <v>173.4370602529876</v>
+        <v>173.4370602529879</v>
       </c>
       <c r="D43" t="n">
-        <v>153.9165656163407</v>
+        <v>153.916565616341</v>
       </c>
       <c r="E43" t="n">
-        <v>135.4589499132499</v>
+        <v>135.4589499132501</v>
       </c>
       <c r="F43" t="n">
-        <v>116.5296934746174</v>
+        <v>116.5296934746176</v>
       </c>
       <c r="G43" t="n">
-        <v>81.40229510969029</v>
+        <v>81.40229510969037</v>
       </c>
       <c r="H43" t="n">
-        <v>57.72332836579588</v>
+        <v>57.72332836579591</v>
       </c>
       <c r="I43" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="J43" t="n">
-        <v>54.31775821533931</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="K43" t="n">
         <v>115.3590714506253</v>
       </c>
       <c r="L43" t="n">
-        <v>264.0643275201346</v>
+        <v>251.0762252072203</v>
       </c>
       <c r="M43" t="n">
-        <v>549.9702099655474</v>
+        <v>406.088381947901</v>
       </c>
       <c r="N43" t="n">
-        <v>835.4247072621324</v>
+        <v>560.6491535397539</v>
       </c>
       <c r="O43" t="n">
-        <v>967.2680428915083</v>
+        <v>723.4761287109707</v>
       </c>
       <c r="P43" t="n">
-        <v>1058.798617193004</v>
+        <v>945.900428717198</v>
       </c>
       <c r="Q43" t="n">
         <v>1058.798617193004</v>
       </c>
       <c r="R43" t="n">
-        <v>1053.662300385283</v>
+        <v>1053.662300385284</v>
       </c>
       <c r="S43" t="n">
-        <v>977.7030678658283</v>
+        <v>977.7030678658293</v>
       </c>
       <c r="T43" t="n">
-        <v>879.1050342522544</v>
+        <v>879.1050342522553</v>
       </c>
       <c r="U43" t="n">
-        <v>725.4793360986702</v>
+        <v>725.479336098671</v>
       </c>
       <c r="V43" t="n">
-        <v>598.2954301926832</v>
+        <v>598.2954301926839</v>
       </c>
       <c r="W43" t="n">
-        <v>445.6904272456727</v>
+        <v>445.6904272456733</v>
       </c>
       <c r="X43" t="n">
-        <v>347.9893616766389</v>
+        <v>347.9893616766394</v>
       </c>
       <c r="Y43" t="n">
-        <v>259.5056014045063</v>
+        <v>259.5056014045068</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1578.147823947087</v>
+        <v>1311.208545776752</v>
       </c>
       <c r="C44" t="n">
-        <v>1329.765463815484</v>
+        <v>1311.208545776752</v>
       </c>
       <c r="D44" t="n">
-        <v>1090.492897578298</v>
+        <v>1071.935979539566</v>
       </c>
       <c r="E44" t="n">
-        <v>829.2585762199953</v>
+        <v>810.7016581812627</v>
       </c>
       <c r="F44" t="n">
-        <v>548.6587840657561</v>
+        <v>530.1018660270233</v>
       </c>
       <c r="G44" t="n">
-        <v>266.6433566084656</v>
+        <v>248.0864385697329</v>
       </c>
       <c r="H44" t="n">
-        <v>72.87467625407216</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="I44" t="n">
-        <v>54.31775821533929</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="J44" t="n">
-        <v>170.9998754409521</v>
+        <v>170.9998754409517</v>
       </c>
       <c r="K44" t="n">
-        <v>478.1093403206289</v>
+        <v>478.1093403206287</v>
       </c>
       <c r="L44" t="n">
-        <v>909.0757948795299</v>
+        <v>909.0757948795294</v>
       </c>
       <c r="M44" t="n">
-        <v>1394.758672282998</v>
+        <v>1394.758672282997</v>
       </c>
       <c r="N44" t="n">
-        <v>1867.029578014431</v>
+        <v>1867.02957801443</v>
       </c>
       <c r="O44" t="n">
-        <v>2260.738612948712</v>
+        <v>2260.738612948711</v>
       </c>
       <c r="P44" t="n">
-        <v>2564.602705623618</v>
+        <v>2564.602705623617</v>
       </c>
       <c r="Q44" t="n">
-        <v>2715.887910766965</v>
+        <v>2715.887910766964</v>
       </c>
       <c r="R44" t="n">
-        <v>2715.887910766965</v>
+        <v>2715.887910766964</v>
       </c>
       <c r="S44" t="n">
         <v>2674.450880032829</v>
@@ -7682,16 +7682,16 @@
         <v>2464.703787713706</v>
       </c>
       <c r="V44" t="n">
-        <v>2261.275912145239</v>
+        <v>2261.275912145238</v>
       </c>
       <c r="W44" t="n">
-        <v>2261.275912145239</v>
+        <v>2032.292380538429</v>
       </c>
       <c r="X44" t="n">
-        <v>2098.630421818087</v>
+        <v>1783.813638595513</v>
       </c>
       <c r="Y44" t="n">
-        <v>1838.639964929515</v>
+        <v>1571.70068675918</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I45" t="n">
-        <v>54.31775821533929</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="J45" t="n">
         <v>141.1851346860173</v>
       </c>
       <c r="K45" t="n">
-        <v>141.1851346860173</v>
+        <v>416.1619361024142</v>
       </c>
       <c r="L45" t="n">
-        <v>385.8757708895562</v>
+        <v>843.1456562114599</v>
       </c>
       <c r="M45" t="n">
         <v>942.2821476342436</v>
@@ -7780,46 +7780,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>209.5016312557169</v>
+        <v>209.5016312557173</v>
       </c>
       <c r="C46" t="n">
-        <v>173.4370602529875</v>
+        <v>173.4370602529879</v>
       </c>
       <c r="D46" t="n">
-        <v>153.9165656163407</v>
+        <v>153.916565616341</v>
       </c>
       <c r="E46" t="n">
-        <v>135.4589499132499</v>
+        <v>135.4589499132501</v>
       </c>
       <c r="F46" t="n">
-        <v>116.5296934746174</v>
+        <v>116.5296934746176</v>
       </c>
       <c r="G46" t="n">
-        <v>81.40229510969027</v>
+        <v>81.40229510969037</v>
       </c>
       <c r="H46" t="n">
-        <v>57.72332836579586</v>
+        <v>57.72332836579591</v>
       </c>
       <c r="I46" t="n">
-        <v>54.31775821533929</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="J46" t="n">
-        <v>54.31775821533929</v>
+        <v>54.31775821533928</v>
       </c>
       <c r="K46" t="n">
         <v>115.3590714506253</v>
       </c>
       <c r="L46" t="n">
-        <v>251.0762252072203</v>
+        <v>381.9699509119524</v>
       </c>
       <c r="M46" t="n">
-        <v>419.0764842608153</v>
+        <v>549.9702099655484</v>
       </c>
       <c r="N46" t="n">
-        <v>704.5309815574003</v>
+        <v>704.5309815574012</v>
       </c>
       <c r="O46" t="n">
-        <v>967.2680428915083</v>
+        <v>967.2680428915093</v>
       </c>
       <c r="P46" t="n">
         <v>1058.798617193004</v>
@@ -7828,28 +7828,28 @@
         <v>1058.798617193004</v>
       </c>
       <c r="R46" t="n">
-        <v>1053.662300385283</v>
+        <v>1053.662300385284</v>
       </c>
       <c r="S46" t="n">
-        <v>977.7030678658283</v>
+        <v>977.7030678658293</v>
       </c>
       <c r="T46" t="n">
-        <v>879.1050342522544</v>
+        <v>879.1050342522553</v>
       </c>
       <c r="U46" t="n">
-        <v>725.4793360986702</v>
+        <v>725.479336098671</v>
       </c>
       <c r="V46" t="n">
-        <v>598.2954301926832</v>
+        <v>598.2954301926839</v>
       </c>
       <c r="W46" t="n">
-        <v>445.6904272456727</v>
+        <v>445.6904272456733</v>
       </c>
       <c r="X46" t="n">
-        <v>347.9893616766389</v>
+        <v>347.9893616766394</v>
       </c>
       <c r="Y46" t="n">
-        <v>259.5056014045063</v>
+        <v>259.5056014045068</v>
       </c>
     </row>
   </sheetData>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>188.8326827569781</v>
+        <v>188.4282512910011</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
@@ -8462,16 +8462,16 @@
         <v>197.1659932800904</v>
       </c>
       <c r="N8" t="n">
-        <v>196.4077929551615</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>196.9644755630518</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>190.2286203399446</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8538,7 +8538,7 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>125.0891498785942</v>
+        <v>125.4935813445713</v>
       </c>
       <c r="N9" t="n">
         <v>116.7248198506397</v>
@@ -8547,10 +8547,10 @@
         <v>125.8691273940425</v>
       </c>
       <c r="P9" t="n">
-        <v>118.8638848070747</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>123.3404387618468</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8611,19 +8611,19 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>114.8329510464913</v>
       </c>
       <c r="L10" t="n">
         <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
-        <v>122.8868782403605</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7541836609333</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
-        <v>122.1011848090766</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
         <v>111.9040032899324</v>
@@ -8693,13 +8693,13 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>360.8957583733902</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>386.4871811933839</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
@@ -8775,13 +8775,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>143.5278098225726</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>50.13224200732092</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8936,7 +8936,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
-        <v>386.4871811933846</v>
+        <v>539.3005197220167</v>
       </c>
       <c r="O14" t="n">
         <v>495.0402356415689</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>123.1961493292428</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>76.17352122467494</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,10 +9012,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>426.9581992218549</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941912</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.41490937517763</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9167,10 +9167,10 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>542.9595789155856</v>
+        <v>360.8957583733902</v>
       </c>
       <c r="M17" t="n">
-        <v>402.3037729984868</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
         <v>568.5510017355793</v>
@@ -9252,16 +9252,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>356.9418782756185</v>
       </c>
       <c r="O18" t="n">
-        <v>50.13224200732</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>273.1004740566038</v>
+        <v>77.41490937517761</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>101.9648752533802</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>239.3252158003187</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>211.8063917859958</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>76.17352122467493</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>249.0011383120489</v>
+        <v>161.2563135941912</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9647,13 +9647,13 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N23" t="n">
-        <v>386.4871811933839</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O23" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P23" t="n">
-        <v>418.3383206229274</v>
+        <v>236.2745000807315</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9714,19 +9714,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>133.3262598689374</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>50.7957619156628</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>356.9418782756176</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9735,7 +9735,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.41490937517761</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>76.1735212246749</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9960,16 +9960,16 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>231.272634540428</v>
       </c>
       <c r="N27" t="n">
-        <v>520.7368720284389</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>54.52104079767114</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
         <v>273.1004740566038</v>
@@ -10188,22 +10188,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>76.17352122467493</v>
       </c>
       <c r="K30" t="n">
-        <v>343.8048081163522</v>
+        <v>66.05046325130478</v>
       </c>
       <c r="L30" t="n">
-        <v>50.7957619156628</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>526.7554831770956</v>
       </c>
       <c r="O30" t="n">
-        <v>481.4289289861546</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10425,7 +10425,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>76.17352122467493</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10437,10 +10437,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>356.9418782756181</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>333.5626314066032</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10668,19 +10668,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>482.0924488944969</v>
+        <v>379.6842342763162</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>161.2563135941917</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>54.52104079767114</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578774</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>76.17352122467493</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>249.001138312048</v>
+        <v>161.2563135941917</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11060,7 +11060,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425137</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578774</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>66.05046325130478</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11148,10 +11148,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>161.2563135941914</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>327.8865868723674</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11376,13 +11376,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>66.05046325130478</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>297.9580207071162</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>143.5278098225719</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>275.4734992560195</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>288.196940870453</v>
+        <v>80.13780376462108</v>
       </c>
       <c r="F11" t="n">
-        <v>307.3687569584301</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>308.7702359084508</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>221.4059562765829</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>47.94631158407879</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>29.39787305241974</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>266.4548033005474</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>288.196940870453</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>308.7702359084508</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>47.94631158407879</v>
+        <v>47.94631158407878</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>56.79825961048701</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.854803381351303</v>
       </c>
       <c r="X14" t="n">
-        <v>275.5689172492204</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>286.9655150454191</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -25631,13 +25631,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>54.27806307066146</v>
+        <v>15.50347229930716</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>277.7937942326969</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>18.37134885834559</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.3905523196859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>245.8985365302863</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.37134885834559</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,13 +25925,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>226.6936962907405</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>84.97491909960709</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>47.39873000171686</v>
       </c>
     </row>
     <row r="45">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792892.8177146153</v>
+        <v>792892.8177146151</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>843767.7757976591</v>
+        <v>843767.7757976589</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>843767.7757976589</v>
+        <v>843767.7757976591</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>631848.2209935259</v>
+      </c>
+      <c r="C2" t="n">
         <v>631848.220993526</v>
       </c>
-      <c r="C2" t="n">
-        <v>631848.2209935263</v>
-      </c>
       <c r="D2" t="n">
-        <v>633162.8922048764</v>
+        <v>633162.8922048765</v>
       </c>
       <c r="E2" t="n">
-        <v>571971.5508158171</v>
+        <v>571971.5508158174</v>
       </c>
       <c r="F2" t="n">
-        <v>571971.5508158174</v>
+        <v>571971.5508158176</v>
       </c>
       <c r="G2" t="n">
-        <v>633289.8499077004</v>
+        <v>633289.8499077006</v>
       </c>
       <c r="H2" t="n">
-        <v>633289.8499077004</v>
+        <v>633289.8499077007</v>
       </c>
       <c r="I2" t="n">
-        <v>633289.8499077008</v>
+        <v>633289.8499077007</v>
       </c>
       <c r="J2" t="n">
+        <v>633289.8499077009</v>
+      </c>
+      <c r="K2" t="n">
         <v>633289.8499077007</v>
       </c>
-      <c r="K2" t="n">
-        <v>633289.8499077006</v>
-      </c>
       <c r="L2" t="n">
+        <v>633289.8499076996</v>
+      </c>
+      <c r="M2" t="n">
         <v>633289.8499076995</v>
       </c>
-      <c r="M2" t="n">
-        <v>633289.8499076994</v>
-      </c>
       <c r="N2" t="n">
-        <v>633289.8499076999</v>
+        <v>633289.8499077</v>
       </c>
       <c r="O2" t="n">
-        <v>612822.5719350164</v>
+        <v>612822.5719350162</v>
       </c>
       <c r="P2" t="n">
-        <v>612822.5719350163</v>
+        <v>612822.571935016</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50616.42829746705</v>
+        <v>50616.42829746711</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94448.75405589241</v>
+        <v>94448.75405589247</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>52688.19157324304</v>
+        <v>52688.19157324301</v>
       </c>
       <c r="M3" t="n">
-        <v>147591.2452609264</v>
+        <v>147591.2452609263</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14736.46536030512</v>
+        <v>14736.46536030508</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,10 +26427,10 @@
         <v>258356.847285085</v>
       </c>
       <c r="F4" t="n">
-        <v>258356.847285085</v>
+        <v>258356.8472850849</v>
       </c>
       <c r="G4" t="n">
-        <v>300544.5852893459</v>
+        <v>300544.5852893461</v>
       </c>
       <c r="H4" t="n">
         <v>300544.585289346</v>
@@ -26439,10 +26439,10 @@
         <v>300544.5852893461</v>
       </c>
       <c r="J4" t="n">
-        <v>298554.9100097941</v>
+        <v>298554.9100097942</v>
       </c>
       <c r="K4" t="n">
-        <v>298554.9100097941</v>
+        <v>298554.9100097942</v>
       </c>
       <c r="L4" t="n">
         <v>298501.2971321294</v>
@@ -26476,40 +26476,40 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>49998.56587267925</v>
+        <v>49998.56587267924</v>
       </c>
       <c r="F5" t="n">
-        <v>49998.56587267925</v>
+        <v>49998.56587267924</v>
       </c>
       <c r="G5" t="n">
-        <v>55317.65651085395</v>
+        <v>55317.65651085394</v>
       </c>
       <c r="H5" t="n">
         <v>55317.65651085394</v>
       </c>
       <c r="I5" t="n">
-        <v>55317.65651085395</v>
+        <v>55317.65651085394</v>
       </c>
       <c r="J5" t="n">
-        <v>64627.25466179926</v>
+        <v>64627.25466179928</v>
       </c>
       <c r="K5" t="n">
-        <v>64627.25466179926</v>
+        <v>64627.25466179928</v>
       </c>
       <c r="L5" t="n">
         <v>64236.38002533605</v>
       </c>
       <c r="M5" t="n">
-        <v>57041.74109215513</v>
+        <v>57041.74109215512</v>
       </c>
       <c r="N5" t="n">
-        <v>57041.74109215513</v>
+        <v>57041.74109215512</v>
       </c>
       <c r="O5" t="n">
-        <v>55280.51195643521</v>
+        <v>55280.51195643518</v>
       </c>
       <c r="P5" t="n">
-        <v>55280.5119564352</v>
+        <v>55280.51195643518</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201150.46358981</v>
+        <v>201146.0950173427</v>
       </c>
       <c r="C6" t="n">
-        <v>201150.4635898102</v>
+        <v>201146.0950173428</v>
       </c>
       <c r="D6" t="n">
-        <v>199040.7854033122</v>
+        <v>199040.4006830007</v>
       </c>
       <c r="E6" t="n">
-        <v>-110781.4460046875</v>
+        <v>-110967.2590322383</v>
       </c>
       <c r="F6" t="n">
-        <v>263616.1376580532</v>
+        <v>263430.3246305023</v>
       </c>
       <c r="G6" t="n">
         <v>226811.1798100335</v>
       </c>
       <c r="H6" t="n">
-        <v>277427.6081075005</v>
+        <v>277427.6081075007</v>
       </c>
       <c r="I6" t="n">
-        <v>277427.6081075008</v>
+        <v>277427.6081075007</v>
       </c>
       <c r="J6" t="n">
-        <v>175658.9311802149</v>
+        <v>175658.931180215</v>
       </c>
       <c r="K6" t="n">
         <v>270107.6852361072</v>
       </c>
       <c r="L6" t="n">
-        <v>217863.981176991</v>
+        <v>217863.9811769912</v>
       </c>
       <c r="M6" t="n">
-        <v>131125.3509892787</v>
+        <v>131125.3509892789</v>
       </c>
       <c r="N6" t="n">
-        <v>278716.5962502055</v>
+        <v>278716.5962502057</v>
       </c>
       <c r="O6" t="n">
-        <v>259348.4889095217</v>
+        <v>259286.466855059</v>
       </c>
       <c r="P6" t="n">
-        <v>274084.9542698268</v>
+        <v>274022.9322153638</v>
       </c>
     </row>
   </sheetData>
@@ -26698,10 +26698,10 @@
         <v>102.6409218245012</v>
       </c>
       <c r="G2" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H2" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="I2" t="n">
         <v>165.9114571963351</v>
@@ -26713,19 +26713,19 @@
         <v>102.6409218245012</v>
       </c>
       <c r="L2" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="M2" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="N2" t="n">
         <v>153.1656893025204</v>
       </c>
       <c r="O2" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="P2" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>132.2825006662238</v>
       </c>
       <c r="F3" t="n">
-        <v>132.2825006662237</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="G3" t="n">
         <v>132.2825006662238</v>
@@ -26759,7 +26759,7 @@
         <v>132.2825006662238</v>
       </c>
       <c r="J3" t="n">
-        <v>132.2825006662238</v>
+        <v>132.2825006662239</v>
       </c>
       <c r="K3" t="n">
         <v>132.2825006662238</v>
@@ -26799,37 +26799,37 @@
         <v>632.9915740344009</v>
       </c>
       <c r="F4" t="n">
-        <v>632.991574034401</v>
+        <v>632.9915740344009</v>
       </c>
       <c r="G4" t="n">
-        <v>632.991574034401</v>
+        <v>632.9915740344009</v>
       </c>
       <c r="H4" t="n">
         <v>632.9915740344009</v>
       </c>
       <c r="I4" t="n">
-        <v>632.991574034401</v>
+        <v>632.9915740344009</v>
       </c>
       <c r="J4" t="n">
-        <v>873.5950080659801</v>
+        <v>873.5950080659804</v>
       </c>
       <c r="K4" t="n">
-        <v>873.5950080659801</v>
+        <v>873.5950080659804</v>
       </c>
       <c r="L4" t="n">
-        <v>863.5853292830487</v>
+        <v>863.5853292830491</v>
       </c>
       <c r="M4" t="n">
         <v>678.9719776917411</v>
       </c>
       <c r="N4" t="n">
-        <v>678.9719776917414</v>
+        <v>678.971977691741</v>
       </c>
       <c r="O4" t="n">
-        <v>678.9719776917414</v>
+        <v>678.971977691741</v>
       </c>
       <c r="P4" t="n">
-        <v>678.9719776917411</v>
+        <v>678.971977691741</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>63.27053537183382</v>
+        <v>63.27053537183389</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.37038645266739</v>
+        <v>39.37038645266733</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>65.86023946655379</v>
+        <v>65.86023946655376</v>
       </c>
       <c r="M2" t="n">
-        <v>47.93506338329925</v>
+        <v>47.93506338329929</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.4205817003814</v>
+        <v>18.42058170038135</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>240.6034340315791</v>
+        <v>240.6034340315796</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>438.3685436601619</v>
+        <v>438.3685436601615</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63.27053537183382</v>
+        <v>63.27053537183389</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.37038645266739</v>
+        <v>39.37038645266733</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>380.0934253399076</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>360.2792000530427</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27904,7 +27904,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>212.1056780233676</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>380.7899117979144</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27941,16 +27941,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>124.5303349976185</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>117.4315361940169</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>88.92880009583757</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>50.36990114399772</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>176.7885740127433</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>206.3001656947416</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>228.8930312960917</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -28017,16 +28017,16 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>141.6723990242884</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>140.9461696415493</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2208723628971</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>147.7692399855875</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28062,22 +28062,22 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>220.8374848695466</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>274.3086583328597</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>273.2851586848435</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>210.9982821476397</v>
       </c>
     </row>
     <row r="11">
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.3269161718703</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S14" t="n">
         <v>102.6409218245012</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="E17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="F17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="G17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="I17" t="n">
         <v>150.58723340858</v>
@@ -28612,25 +28612,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="T17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="V17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H19" t="n">
         <v>155.6580616266899</v>
@@ -28770,25 +28770,25 @@
         <v>137.300838189878</v>
       </c>
       <c r="S19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="T19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U19" t="n">
-        <v>12.74659064484661</v>
+        <v>12.74659064484609</v>
       </c>
       <c r="V19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="E20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="F20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="G20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="I20" t="n">
         <v>150.58723340858</v>
@@ -28849,25 +28849,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="T20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="V20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H22" t="n">
         <v>155.6580616266899</v>
@@ -29004,28 +29004,28 @@
         <v>18.17731033224807</v>
       </c>
       <c r="R22" t="n">
-        <v>137.300838189878</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>165.911457196335</v>
+        <v>150.0474288347241</v>
       </c>
       <c r="T22" t="n">
-        <v>12.74659064484669</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="V22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="23">
@@ -29196,7 +29196,7 @@
         <v>165.9114571963351</v>
       </c>
       <c r="C25" t="n">
-        <v>163.7024390693267</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29205,7 +29205,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>165.9114571963351</v>
@@ -29241,13 +29241,13 @@
         <v>18.17731033224807</v>
       </c>
       <c r="R25" t="n">
-        <v>137.300838189878</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>165.9114571963351</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9114571963351</v>
+        <v>150.0474288347241</v>
       </c>
       <c r="U25" t="n">
         <v>165.9114571963351</v>
@@ -29296,7 +29296,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="J26" t="n">
-        <v>5.828106290019008</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="K26" t="n">
         <v>102.6409218245012</v>
@@ -29314,7 +29314,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="P26" t="n">
-        <v>102.6409218245012</v>
+        <v>5.828106290020116</v>
       </c>
       <c r="Q26" t="n">
         <v>102.6409218245012</v>
@@ -29536,7 +29536,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="K29" t="n">
-        <v>102.6409218245012</v>
+        <v>52.1421119426513</v>
       </c>
       <c r="L29" t="n">
         <v>102.6409218245012</v>
@@ -29554,10 +29554,10 @@
         <v>102.6409218245012</v>
       </c>
       <c r="Q29" t="n">
-        <v>5.828106290019093</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="R29" t="n">
-        <v>102.6409218245012</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S29" t="n">
         <v>102.6409218245012</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="C32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="D32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="E32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="F32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="G32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="H32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="I32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="K32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="L32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="M32" t="n">
-        <v>105.2306259192212</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>50.70681578573169</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="O32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="P32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.2306259192212</v>
+        <v>50.70681578573397</v>
       </c>
       <c r="R32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="S32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="T32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="U32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="V32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="W32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="X32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="C34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="D34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="E34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="F34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="G34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="H34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="I34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="J34" t="n">
-        <v>42.59173164781782</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="K34" t="n">
-        <v>104.8753181894002</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2306259192212</v>
+        <v>42.23642391799893</v>
       </c>
       <c r="M34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="N34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="O34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="P34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="R34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="S34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="T34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="U34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="V34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="W34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="X34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192211</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="C35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="D35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="E35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="F35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="G35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="H35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="I35" t="n">
         <v>150.58723340858</v>
@@ -30034,25 +30034,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="T35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="U35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="V35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="W35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="X35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="Y35" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="C37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,10 +30156,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="H37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="I37" t="n">
         <v>135.5873989991865</v>
@@ -30192,25 +30192,25 @@
         <v>137.300838189878</v>
       </c>
       <c r="S37" t="n">
-        <v>129.9508740133474</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="T37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="V37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="W37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="X37" t="n">
-        <v>153.1656893025205</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.1656893025205</v>
+        <v>129.950874013348</v>
       </c>
     </row>
     <row r="38">
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>56.32691617186937</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S38" t="n">
         <v>153.1656893025204</v>
@@ -30423,16 +30423,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.17731033224807</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.300838189878</v>
       </c>
       <c r="S40" t="n">
-        <v>129.9508740133479</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="T40" t="n">
-        <v>153.1656893025204</v>
+        <v>148.128184345596</v>
       </c>
       <c r="U40" t="n">
         <v>153.1656893025204</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="C41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="D41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="E41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="F41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="G41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="H41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="I41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="T41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="U41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="V41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="W41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="X41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="Y41" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="C43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="D43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="E43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="F43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="G43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="H43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="I43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="J43" t="n">
         <v>42.59173164781782</v>
@@ -30645,46 +30645,46 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>13.11929526556992</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>132.2158845502345</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>132.2158845502345</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>31.296605597819</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.17731033224807</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="R43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="S43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="T43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="U43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="V43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="W43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="X43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="C44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="D44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="E44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="F44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="G44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="H44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="I44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="T44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="U44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="V44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="W44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="X44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="Y44" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="C46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="D46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="E46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="F46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="G46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="H46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="I46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="J46" t="n">
         <v>42.59173164781782</v>
@@ -30882,16 +30882,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="M46" t="n">
-        <v>13.11929526556997</v>
+        <v>13.11929526557103</v>
       </c>
       <c r="N46" t="n">
-        <v>132.2158845502345</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>18.17731033224807</v>
       </c>
       <c r="R46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="S46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="T46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="U46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="V46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="W46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="X46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
       <c r="Y46" t="n">
-        <v>132.2158845502345</v>
+        <v>132.2158845502344</v>
       </c>
     </row>
   </sheetData>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.531788947401904</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H14" t="n">
-        <v>5.446183557579751</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I14" t="n">
-        <v>20.50179339471192</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J14" t="n">
-        <v>45.13492217455239</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K14" t="n">
-        <v>67.645548318075</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L14" t="n">
-        <v>83.92028431712603</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M14" t="n">
-        <v>93.37748601048463</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N14" t="n">
-        <v>94.8884313572903</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O14" t="n">
-        <v>89.60045501156262</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P14" t="n">
-        <v>76.4719153725781</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.42722369374739</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R14" t="n">
-        <v>33.40498746723488</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S14" t="n">
         <v>12.1181406389209</v>
       </c>
       <c r="T14" t="n">
-        <v>2.327906117251836</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04254311579215231</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2845321712443303</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H15" t="n">
-        <v>2.747981759122874</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I15" t="n">
-        <v>9.796392738017513</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J15" t="n">
-        <v>26.88205044199175</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K15" t="n">
-        <v>45.94570591536188</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L15" t="n">
-        <v>61.77967165548496</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M15" t="n">
-        <v>72.09396286309192</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N15" t="n">
-        <v>74.00207553779623</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O15" t="n">
-        <v>67.69744163811923</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P15" t="n">
-        <v>54.33316522647215</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.32028206971486</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R15" t="n">
         <v>17.66595357953834</v>
       </c>
       <c r="S15" t="n">
-        <v>5.285060286051482</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T15" t="n">
-        <v>1.146864321813769</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01871922179239015</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2385422143161411</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H16" t="n">
-        <v>2.120857141828965</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I16" t="n">
-        <v>7.173614954161772</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J16" t="n">
-        <v>16.86493455215117</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K16" t="n">
-        <v>27.7142681723662</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L16" t="n">
-        <v>35.46472157205611</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M16" t="n">
-        <v>37.39257637684746</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N16" t="n">
-        <v>36.50346448712369</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O16" t="n">
-        <v>33.71685771079421</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P16" t="n">
-        <v>28.85059653874491</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.97465760059978</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R16" t="n">
         <v>10.72572538188758</v>
       </c>
       <c r="S16" t="n">
-        <v>4.15714022585493</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T16" t="n">
         <v>1.01922582480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01301139350815316</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5317889474019042</v>
+        <v>0.5317889474019047</v>
       </c>
       <c r="H26" t="n">
-        <v>5.446183557579753</v>
+        <v>5.446183557579759</v>
       </c>
       <c r="I26" t="n">
-        <v>20.50179339471193</v>
+        <v>20.50179339471195</v>
       </c>
       <c r="J26" t="n">
-        <v>45.13492217455241</v>
+        <v>45.13492217455246</v>
       </c>
       <c r="K26" t="n">
-        <v>67.64554831807503</v>
+        <v>67.6455483180751</v>
       </c>
       <c r="L26" t="n">
-        <v>83.92028431712606</v>
+        <v>83.92028431712616</v>
       </c>
       <c r="M26" t="n">
-        <v>93.37748601048467</v>
+        <v>93.37748601048477</v>
       </c>
       <c r="N26" t="n">
-        <v>94.88843135729034</v>
+        <v>94.88843135729044</v>
       </c>
       <c r="O26" t="n">
-        <v>89.60045501156266</v>
+        <v>89.60045501156276</v>
       </c>
       <c r="P26" t="n">
-        <v>76.47191537257814</v>
+        <v>76.47191537257821</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.42722369374742</v>
+        <v>57.42722369374749</v>
       </c>
       <c r="R26" t="n">
-        <v>33.4049874672349</v>
+        <v>33.40498746723493</v>
       </c>
       <c r="S26" t="n">
-        <v>12.1181406389209</v>
+        <v>12.11814063892092</v>
       </c>
       <c r="T26" t="n">
-        <v>2.327906117251837</v>
+        <v>2.327906117251839</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04254311579215233</v>
+        <v>0.04254311579215237</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2845321712443304</v>
+        <v>0.2845321712443307</v>
       </c>
       <c r="H27" t="n">
-        <v>2.747981759122875</v>
+        <v>2.747981759122879</v>
       </c>
       <c r="I27" t="n">
-        <v>9.796392738017516</v>
+        <v>9.796392738017527</v>
       </c>
       <c r="J27" t="n">
-        <v>26.88205044199176</v>
+        <v>26.88205044199179</v>
       </c>
       <c r="K27" t="n">
-        <v>45.9457059153619</v>
+        <v>45.94570591536194</v>
       </c>
       <c r="L27" t="n">
-        <v>61.77967165548498</v>
+        <v>61.77967165548505</v>
       </c>
       <c r="M27" t="n">
-        <v>72.09396286309195</v>
+        <v>72.09396286309202</v>
       </c>
       <c r="N27" t="n">
-        <v>74.00207553779626</v>
+        <v>74.00207553779634</v>
       </c>
       <c r="O27" t="n">
-        <v>67.69744163811926</v>
+        <v>67.69744163811933</v>
       </c>
       <c r="P27" t="n">
-        <v>54.33316522647218</v>
+        <v>54.33316522647224</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.32028206971488</v>
+        <v>36.32028206971491</v>
       </c>
       <c r="R27" t="n">
-        <v>17.66595357953834</v>
+        <v>17.66595357953836</v>
       </c>
       <c r="S27" t="n">
-        <v>5.285060286051484</v>
+        <v>5.28506028605149</v>
       </c>
       <c r="T27" t="n">
-        <v>1.14686432181377</v>
+        <v>1.146864321813771</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01871922179239017</v>
+        <v>0.01871922179239018</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2385422143161412</v>
+        <v>0.2385422143161414</v>
       </c>
       <c r="H28" t="n">
-        <v>2.120857141828966</v>
+        <v>2.120857141828968</v>
       </c>
       <c r="I28" t="n">
-        <v>7.173614954161776</v>
+        <v>7.173614954161783</v>
       </c>
       <c r="J28" t="n">
-        <v>16.86493455215118</v>
+        <v>16.8649345521512</v>
       </c>
       <c r="K28" t="n">
-        <v>27.71426817236622</v>
+        <v>27.71426817236625</v>
       </c>
       <c r="L28" t="n">
-        <v>35.46472157205613</v>
+        <v>35.46472157205616</v>
       </c>
       <c r="M28" t="n">
-        <v>37.39257637684747</v>
+        <v>37.39257637684752</v>
       </c>
       <c r="N28" t="n">
-        <v>36.50346448712371</v>
+        <v>36.50346448712374</v>
       </c>
       <c r="O28" t="n">
-        <v>33.71685771079422</v>
+        <v>33.71685771079426</v>
       </c>
       <c r="P28" t="n">
-        <v>28.85059653874492</v>
+        <v>28.85059653874495</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.97465760059979</v>
+        <v>19.97465760059981</v>
       </c>
       <c r="R28" t="n">
-        <v>10.72572538188758</v>
+        <v>10.72572538188759</v>
       </c>
       <c r="S28" t="n">
-        <v>4.157140225854932</v>
+        <v>4.157140225854937</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01922582480533</v>
+        <v>1.019225824805331</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01301139350815317</v>
+        <v>0.01301139350815319</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>10.00967878293136</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>9.605247316954339</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="N9" t="n">
         <v>10.00967878293136</v>
@@ -35267,10 +35267,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="P9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,19 +35331,19 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="M10" t="n">
+        <v>9.605247316954337</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="O10" t="n">
-        <v>9.605247316954333</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35413,13 +35413,13 @@
         <v>310.2115806865424</v>
       </c>
       <c r="L11" t="n">
-        <v>435.319651069597</v>
+        <v>253.2558305274016</v>
       </c>
       <c r="M11" t="n">
         <v>490.5887650540079</v>
       </c>
       <c r="N11" t="n">
-        <v>294.9774983784441</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O11" t="n">
         <v>397.6858938730111</v>
@@ -35495,13 +35495,13 @@
         <v>431.2966869788341</v>
       </c>
       <c r="M12" t="n">
-        <v>100.1378701240246</v>
+        <v>562.026643176452</v>
       </c>
       <c r="N12" t="n">
         <v>590.4320211167075</v>
       </c>
       <c r="O12" t="n">
-        <v>463.8590080867565</v>
+        <v>1.970235034329075</v>
       </c>
       <c r="P12" t="n">
         <v>359.4805584342472</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.04919017668342</v>
+        <v>60.0491901766834</v>
       </c>
       <c r="K13" t="n">
         <v>164.2988139813557</v>
@@ -35583,10 +35583,10 @@
         <v>235.8160083188204</v>
       </c>
       <c r="P13" t="n">
-        <v>195.0960473815672</v>
+        <v>195.0960473815671</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.46361149225316</v>
+        <v>84.46361149225315</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,22 +35650,22 @@
         <v>310.2115806865424</v>
       </c>
       <c r="L14" t="n">
-        <v>435.3196510695969</v>
+        <v>435.319651069597</v>
       </c>
       <c r="M14" t="n">
-        <v>490.5887650540078</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N14" t="n">
-        <v>294.9774983784448</v>
+        <v>447.7908369070769</v>
       </c>
       <c r="O14" t="n">
         <v>397.6858938730111</v>
       </c>
       <c r="P14" t="n">
-        <v>306.933426944349</v>
+        <v>306.9334269443491</v>
       </c>
       <c r="Q14" t="n">
-        <v>152.8133385286333</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K15" t="n">
         <v>277.7543448650474</v>
@@ -35732,19 +35732,19 @@
         <v>431.2966869788341</v>
       </c>
       <c r="M15" t="n">
-        <v>383.5682595233069</v>
+        <v>562.026643176452</v>
       </c>
       <c r="N15" t="n">
-        <v>590.4320211167075</v>
+        <v>128.5432480642791</v>
       </c>
       <c r="O15" t="n">
         <v>463.8590080867565</v>
       </c>
       <c r="P15" t="n">
-        <v>359.4805584342471</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.04919017668341</v>
+        <v>60.0491901766834</v>
       </c>
       <c r="K16" t="n">
         <v>164.2988139813557</v>
@@ -35814,7 +35814,7 @@
         <v>259.2188579261989</v>
       </c>
       <c r="N16" t="n">
-        <v>258.7629133314232</v>
+        <v>258.7629133314233</v>
       </c>
       <c r="O16" t="n">
         <v>235.8160083188204</v>
@@ -35823,7 +35823,7 @@
         <v>195.0960473815671</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.46361149225316</v>
+        <v>84.46361149225315</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,10 +35887,10 @@
         <v>310.2115806865424</v>
       </c>
       <c r="L17" t="n">
-        <v>435.319651069597</v>
+        <v>253.2558305274016</v>
       </c>
       <c r="M17" t="n">
-        <v>308.5249445118124</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N17" t="n">
         <v>477.0413189206396</v>
@@ -35972,16 +35972,16 @@
         <v>562.026643176452</v>
       </c>
       <c r="N18" t="n">
-        <v>590.4320211167075</v>
+        <v>324.2288127457065</v>
       </c>
       <c r="O18" t="n">
-        <v>1.970235034328156</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P18" t="n">
         <v>359.4805584342472</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.6855646814262</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K20" t="n">
-        <v>310.2115806865424</v>
+        <v>128.1477601443471</v>
       </c>
       <c r="L20" t="n">
         <v>435.319651069597</v>
@@ -36139,7 +36139,7 @@
         <v>306.9334269443491</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.61024245675299</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K21" t="n">
         <v>277.7543448650474</v>
@@ -36209,7 +36209,7 @@
         <v>562.026643176452</v>
       </c>
       <c r="N21" t="n">
-        <v>216.2880727821368</v>
+        <v>128.5432480642791</v>
       </c>
       <c r="O21" t="n">
         <v>463.8590080867565</v>
@@ -36367,13 +36367,13 @@
         <v>490.5887650540079</v>
       </c>
       <c r="N23" t="n">
-        <v>294.9774983784441</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O23" t="n">
         <v>397.6858938730111</v>
       </c>
       <c r="P23" t="n">
-        <v>306.9334269443491</v>
+        <v>124.8696064021531</v>
       </c>
       <c r="Q23" t="n">
         <v>152.8133385286333</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>87.74482471785656</v>
+        <v>57.15273864426246</v>
       </c>
       <c r="K24" t="n">
         <v>277.7543448650474</v>
       </c>
       <c r="L24" t="n">
-        <v>431.2966869788341</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>562.026643176452</v>
       </c>
       <c r="N24" t="n">
-        <v>324.2288127457056</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O24" t="n">
         <v>463.8590080867565</v>
@@ -36455,7 +36455,7 @@
         <v>359.4805584342472</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>123.6888307603347</v>
+        <v>220.501646294817</v>
       </c>
       <c r="K26" t="n">
         <v>412.8525025110437</v>
@@ -36601,22 +36601,22 @@
         <v>537.9605728940983</v>
       </c>
       <c r="M26" t="n">
-        <v>593.229686878509</v>
+        <v>593.2296868785091</v>
       </c>
       <c r="N26" t="n">
-        <v>579.6822407451408</v>
+        <v>579.6822407451409</v>
       </c>
       <c r="O26" t="n">
-        <v>500.3268156975123</v>
+        <v>500.3268156975124</v>
       </c>
       <c r="P26" t="n">
-        <v>409.5743487688503</v>
+        <v>312.7615332343693</v>
       </c>
       <c r="Q26" t="n">
-        <v>255.4542603531345</v>
+        <v>255.4542603531346</v>
       </c>
       <c r="R26" t="n">
-        <v>46.31400565263096</v>
+        <v>46.31400565263097</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>87.74482471785656</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>277.7543448650474</v>
+        <v>277.7543448650475</v>
       </c>
       <c r="L27" t="n">
-        <v>431.2966869788341</v>
+        <v>431.2966869788342</v>
       </c>
       <c r="M27" t="n">
-        <v>562.026643176452</v>
+        <v>187.8826948418802</v>
       </c>
       <c r="N27" t="n">
-        <v>488.0238064985268</v>
+        <v>590.4320211167076</v>
       </c>
       <c r="O27" t="n">
-        <v>463.8590080867565</v>
+        <v>463.8590080867566</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>359.4805584342473</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.6855646814262</v>
+        <v>195.6855646814263</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.04919017668343</v>
+        <v>60.04919017668342</v>
       </c>
       <c r="K28" t="n">
-        <v>164.2988139813558</v>
+        <v>164.2988139813557</v>
       </c>
       <c r="L28" t="n">
         <v>239.728955922072</v>
@@ -36832,7 +36832,7 @@
         <v>220.5016462948169</v>
       </c>
       <c r="K29" t="n">
-        <v>412.8525025110437</v>
+        <v>362.3536926291937</v>
       </c>
       <c r="L29" t="n">
         <v>537.9605728940983</v>
@@ -36850,10 +36850,10 @@
         <v>409.5743487688503</v>
       </c>
       <c r="Q29" t="n">
-        <v>158.6414448186524</v>
+        <v>255.4542603531345</v>
       </c>
       <c r="R29" t="n">
-        <v>46.31400565263095</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.74482471785656</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>277.7543448650474</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M30" t="n">
         <v>562.026643176452</v>
       </c>
       <c r="N30" t="n">
-        <v>590.4320211167075</v>
+        <v>494.0424176471835</v>
       </c>
       <c r="O30" t="n">
-        <v>433.2669220131628</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P30" t="n">
         <v>359.4805584342472</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.8607244703157</v>
+        <v>223.0913503895368</v>
       </c>
       <c r="K32" t="n">
-        <v>415.4422066057637</v>
+        <v>415.4422066057636</v>
       </c>
       <c r="L32" t="n">
-        <v>540.5502769888183</v>
+        <v>540.550276988818</v>
       </c>
       <c r="M32" t="n">
-        <v>595.819390973229</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N32" t="n">
-        <v>527.7481347063713</v>
+        <v>582.2719448398607</v>
       </c>
       <c r="O32" t="n">
-        <v>502.9165197922323</v>
+        <v>502.9165197922322</v>
       </c>
       <c r="P32" t="n">
-        <v>412.1640528635703</v>
+        <v>412.1640528635702</v>
       </c>
       <c r="Q32" t="n">
-        <v>258.0439644478545</v>
+        <v>203.5201543143672</v>
       </c>
       <c r="R32" t="n">
-        <v>48.90370974735092</v>
+        <v>48.90370974735082</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>87.74482471785656</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>277.7543448650474</v>
@@ -37157,10 +37157,10 @@
         <v>562.026643176452</v>
       </c>
       <c r="N33" t="n">
-        <v>324.228812745706</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O33" t="n">
-        <v>463.8590080867565</v>
+        <v>285.4006244336114</v>
       </c>
       <c r="P33" t="n">
         <v>359.4805584342472</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>62.6388942714033</v>
       </c>
       <c r="K34" t="n">
-        <v>166.5332103462547</v>
+        <v>166.8885180760756</v>
       </c>
       <c r="L34" t="n">
-        <v>242.318660016792</v>
+        <v>179.3244580155697</v>
       </c>
       <c r="M34" t="n">
-        <v>261.8085620209189</v>
+        <v>261.8085620209188</v>
       </c>
       <c r="N34" t="n">
-        <v>261.3526174261433</v>
+        <v>261.3526174261432</v>
       </c>
       <c r="O34" t="n">
-        <v>238.4057124135404</v>
+        <v>238.4057124135402</v>
       </c>
       <c r="P34" t="n">
-        <v>197.6857514762871</v>
+        <v>197.685751476287</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.05331558697314</v>
+        <v>87.05331558697304</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>277.7543448650474</v>
       </c>
       <c r="L36" t="n">
-        <v>431.2966869788341</v>
+        <v>328.8884723606534</v>
       </c>
       <c r="M36" t="n">
         <v>562.026643176452</v>
       </c>
       <c r="N36" t="n">
-        <v>128.5432480642796</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O36" t="n">
         <v>463.8590080867565</v>
       </c>
       <c r="P36" t="n">
-        <v>359.4805584342472</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>195.6855646814262</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>117.8607244703157</v>
+        <v>117.8607244703152</v>
       </c>
       <c r="K38" t="n">
         <v>310.2115806865424</v>
@@ -37561,10 +37561,10 @@
         <v>306.9334269443491</v>
       </c>
       <c r="Q38" t="n">
-        <v>152.8133385286347</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R38" t="n">
-        <v>-9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K39" t="n">
         <v>277.7543448650474</v>
@@ -37631,7 +37631,7 @@
         <v>562.026643176452</v>
       </c>
       <c r="N39" t="n">
-        <v>216.2880727821359</v>
+        <v>128.5432480642796</v>
       </c>
       <c r="O39" t="n">
         <v>463.8590080867565</v>
@@ -37780,7 +37780,7 @@
         <v>117.8607244703157</v>
       </c>
       <c r="K41" t="n">
-        <v>310.2115806865424</v>
+        <v>310.211580686542</v>
       </c>
       <c r="L41" t="n">
         <v>435.319651069597</v>
@@ -37798,7 +37798,7 @@
         <v>306.9334269443491</v>
       </c>
       <c r="Q41" t="n">
-        <v>152.8133385286347</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>87.74482471785656</v>
       </c>
       <c r="K42" t="n">
-        <v>277.7543448650474</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>431.2966869788341</v>
@@ -37868,10 +37868,10 @@
         <v>562.026643176452</v>
       </c>
       <c r="N42" t="n">
-        <v>128.5432480642793</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O42" t="n">
-        <v>463.8590080867565</v>
+        <v>279.7245798993756</v>
       </c>
       <c r="P42" t="n">
         <v>359.4805584342472</v>
@@ -37941,22 +37941,22 @@
         <v>61.65789215685452</v>
       </c>
       <c r="L43" t="n">
-        <v>150.2073293631407</v>
+        <v>137.0880340975708</v>
       </c>
       <c r="M43" t="n">
-        <v>288.7938206519322</v>
+        <v>156.5779361016977</v>
       </c>
       <c r="N43" t="n">
-        <v>288.3378760571566</v>
+        <v>156.1219915069221</v>
       </c>
       <c r="O43" t="n">
-        <v>133.1750864943191</v>
+        <v>164.4716920921381</v>
       </c>
       <c r="P43" t="n">
-        <v>92.45512555706593</v>
+        <v>224.6710101073003</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>114.0385742179864</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>87.74482471785656</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L45" t="n">
-        <v>247.1622587914534</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M45" t="n">
-        <v>562.026643176452</v>
+        <v>100.1378701240239</v>
       </c>
       <c r="N45" t="n">
         <v>590.4320211167075</v>
@@ -38178,13 +38178,13 @@
         <v>61.65789215685452</v>
       </c>
       <c r="L46" t="n">
-        <v>137.0880340975708</v>
+        <v>269.3039186478052</v>
       </c>
       <c r="M46" t="n">
-        <v>169.6972313672677</v>
+        <v>169.6972313672687</v>
       </c>
       <c r="N46" t="n">
-        <v>288.3378760571566</v>
+        <v>156.1219915069221</v>
       </c>
       <c r="O46" t="n">
         <v>265.3909710445536</v>
